--- a/clustered.xlsx
+++ b/clustered.xlsx
@@ -22,937 +22,937 @@
     <t>cluster</t>
   </si>
   <si>
+    <t>critic</t>
+  </si>
+  <si>
+    <t>neighborhood</t>
+  </si>
+  <si>
+    <t>antisocialsocialclub</t>
+  </si>
+  <si>
+    <t>alphaindustry</t>
+  </si>
+  <si>
+    <t>lmc</t>
+  </si>
+  <si>
+    <t>kolonsport</t>
+  </si>
+  <si>
+    <t>keen</t>
+  </si>
+  <si>
+    <t>nepa</t>
+  </si>
+  <si>
+    <t>hazzys</t>
+  </si>
+  <si>
+    <t>aecawhite</t>
+  </si>
+  <si>
+    <t>acoldwall</t>
+  </si>
+  <si>
+    <t>grds</t>
+  </si>
+  <si>
+    <t>gramicchi</t>
+  </si>
+  <si>
+    <t>daks</t>
+  </si>
+  <si>
+    <t>tomboy</t>
+  </si>
+  <si>
+    <t>custommellow</t>
+  </si>
+  <si>
+    <t>hoodbyair</t>
+  </si>
+  <si>
+    <t>howlin</t>
+  </si>
+  <si>
+    <t>billylosangeles</t>
+  </si>
+  <si>
+    <t>gstarraw</t>
+  </si>
+  <si>
+    <t>kith</t>
+  </si>
+  <si>
+    <t>c2h4</t>
+  </si>
+  <si>
+    <t>mains</t>
+  </si>
+  <si>
+    <t>marceloburlon</t>
+  </si>
+  <si>
+    <t>mastermind</t>
+  </si>
+  <si>
+    <t>cavempt</t>
+  </si>
+  <si>
+    <t>zucca</t>
+  </si>
+  <si>
+    <t>newera</t>
+  </si>
+  <si>
+    <t>wtaps</t>
+  </si>
+  <si>
+    <t>umbro</t>
+  </si>
+  <si>
+    <t>aape</t>
+  </si>
+  <si>
+    <t>awakeny</t>
+  </si>
+  <si>
+    <t>aimeleondore</t>
+  </si>
+  <si>
+    <t>rickowens</t>
+  </si>
+  <si>
+    <t>thisisneverthat</t>
+  </si>
+  <si>
+    <t>richardson</t>
+  </si>
+  <si>
+    <t>nonnative</t>
+  </si>
+  <si>
+    <t>polarskateco</t>
+  </si>
+  <si>
+    <t>openingceremony</t>
+  </si>
+  <si>
+    <t>cutlerandgross</t>
+  </si>
+  <si>
+    <t>vans</t>
+  </si>
+  <si>
+    <t>gentlemonster</t>
+  </si>
+  <si>
+    <t>onitsukatiger</t>
+  </si>
+  <si>
+    <t>topshop</t>
+  </si>
+  <si>
+    <t>tomford</t>
+  </si>
+  <si>
+    <t>haveagoodtime</t>
+  </si>
+  <si>
+    <t>titleist</t>
+  </si>
+  <si>
+    <t>hconnect</t>
+  </si>
+  <si>
+    <t>thursdayisland</t>
+  </si>
+  <si>
+    <t>peaceminusone</t>
+  </si>
+  <si>
+    <t>hugoboss</t>
+  </si>
+  <si>
+    <t>humanmade</t>
+  </si>
+  <si>
+    <t>tartoptical</t>
+  </si>
+  <si>
+    <t>seventhheaven</t>
+  </si>
+  <si>
+    <t>lecoqsportif</t>
+  </si>
+  <si>
+    <t>nerdy</t>
+  </si>
+  <si>
     <t>032c</t>
   </si>
   <si>
+    <t>bape</t>
+  </si>
+  <si>
+    <t>8seconds</t>
+  </si>
+  <si>
+    <t>99percentis</t>
+  </si>
+  <si>
+    <t>kuho</t>
+  </si>
+  <si>
+    <t>helmutlang</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>jilsander</t>
+  </si>
+  <si>
+    <t>fendi</t>
+  </si>
+  <si>
+    <t>placesplusfaces</t>
+  </si>
+  <si>
+    <t>fog</t>
+  </si>
+  <si>
+    <t>ami</t>
+  </si>
+  <si>
+    <t>michaelkors</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>levis</t>
+  </si>
+  <si>
+    <t>munsingwear</t>
+  </si>
+  <si>
+    <t>undercover</t>
+  </si>
+  <si>
+    <t>whitemountaineering</t>
+  </si>
+  <si>
+    <t>charleskeith</t>
+  </si>
+  <si>
+    <t>Isabelmarant</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>saintlaurent</t>
+  </si>
+  <si>
+    <t>discovery</t>
+  </si>
+  <si>
+    <t>alexanderwang</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>vivianwestwood</t>
+  </si>
+  <si>
+    <t>superga</t>
+  </si>
+  <si>
+    <t>suicoke</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>tods</t>
+  </si>
+  <si>
+    <t>crocs</t>
+  </si>
+  <si>
+    <t>keds</t>
+  </si>
+  <si>
+    <t>juunj</t>
+  </si>
+  <si>
+    <t>marni</t>
+  </si>
+  <si>
+    <t>alexandermcqueen</t>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>bally</t>
+  </si>
+  <si>
+    <t>montblanc</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>dolcegabbana</t>
+  </si>
+  <si>
+    <t>sandro</t>
+  </si>
+  <si>
+    <t>amiri</t>
+  </si>
+  <si>
+    <t>versace</t>
+  </si>
+  <si>
+    <t>rafsimons</t>
+  </si>
+  <si>
+    <t>balmain</t>
+  </si>
+  <si>
+    <t>paulsmith</t>
+  </si>
+  <si>
+    <t>dior</t>
+  </si>
+  <si>
+    <t>maisonmargiela</t>
+  </si>
+  <si>
+    <t>toryburch</t>
+  </si>
+  <si>
+    <t>maxmara</t>
+  </si>
+  <si>
+    <t>moscot</t>
+  </si>
+  <si>
+    <t>marcjacobs</t>
+  </si>
+  <si>
+    <t>ermenegildozegna</t>
+  </si>
+  <si>
+    <t>martinerose</t>
+  </si>
+  <si>
+    <t>veja</t>
+  </si>
+  <si>
+    <t>gmbh</t>
+  </si>
+  <si>
+    <t>columbiasportswear</t>
+  </si>
+  <si>
+    <t>rockymountainfeatherbed</t>
+  </si>
+  <si>
+    <t>helinox</t>
+  </si>
+  <si>
+    <t>muji</t>
+  </si>
+  <si>
+    <t>ugg</t>
+  </si>
+  <si>
+    <t>goldengoose</t>
+  </si>
+  <si>
+    <t>canadagoose</t>
+  </si>
+  <si>
+    <t>pleasuresclothing</t>
+  </si>
+  <si>
+    <t>sacai</t>
+  </si>
+  <si>
+    <t>dailypaper</t>
+  </si>
+  <si>
+    <t>snowpeak</t>
+  </si>
+  <si>
+    <t>taylormade</t>
+  </si>
+  <si>
+    <t>thenorthface</t>
+  </si>
+  <si>
+    <t>incase</t>
+  </si>
+  <si>
+    <t>blackyak</t>
+  </si>
+  <si>
+    <t>givenchy</t>
+  </si>
+  <si>
+    <t>monclear</t>
+  </si>
+  <si>
+    <t>stoneisland</t>
+  </si>
+  <si>
+    <t>chanel</t>
+  </si>
+  <si>
+    <t>gucci</t>
+  </si>
+  <si>
+    <t>balenciaga</t>
+  </si>
+  <si>
+    <t>burberry</t>
+  </si>
+  <si>
+    <t>louisvuitton</t>
+  </si>
+  <si>
+    <t>celine</t>
+  </si>
+  <si>
+    <t>dsquared2</t>
+  </si>
+  <si>
+    <t>bottegaveneta</t>
+  </si>
+  <si>
+    <t>prada</t>
+  </si>
+  <si>
+    <t>jimmychoo</t>
+  </si>
+  <si>
+    <t>mulberry</t>
+  </si>
+  <si>
+    <t>hermes</t>
+  </si>
+  <si>
+    <t>ferragamo</t>
+  </si>
+  <si>
+    <t>patagonia</t>
+  </si>
+  <si>
+    <t>undefeated</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>uniqlo</t>
+  </si>
+  <si>
+    <t>salomon</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>mandarinaduck</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>maisonkitsune</t>
+  </si>
+  <si>
+    <t>mizuno</t>
+  </si>
+  <si>
+    <t>montbell</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>beanpole</t>
+  </si>
+  <si>
+    <t>lynn</t>
+  </si>
+  <si>
+    <t>thrasher</t>
+  </si>
+  <si>
+    <t>eytys</t>
+  </si>
+  <si>
+    <t>johnelliott</t>
+  </si>
+  <si>
+    <t>eider</t>
+  </si>
+  <si>
+    <t>huf</t>
+  </si>
+  <si>
+    <t>dynafit</t>
+  </si>
+  <si>
+    <t>drmartens</t>
+  </si>
+  <si>
+    <t>herschel</t>
+  </si>
+  <si>
+    <t>giordano</t>
+  </si>
+  <si>
+    <t>buckaroo</t>
+  </si>
+  <si>
+    <t>heritagefloss</t>
+  </si>
+  <si>
+    <t>henderscheme</t>
+  </si>
+  <si>
+    <t>gyakusou</t>
+  </si>
+  <si>
+    <t>champion</t>
+  </si>
+  <si>
+    <t>converse</t>
+  </si>
+  <si>
+    <t>lafuma</t>
+  </si>
+  <si>
+    <t>asics</t>
+  </si>
+  <si>
+    <t>nike</t>
+  </si>
+  <si>
+    <t>underarmour</t>
+  </si>
+  <si>
+    <t>obey</t>
+  </si>
+  <si>
+    <t>oioi</t>
+  </si>
+  <si>
+    <t>gregory</t>
+  </si>
+  <si>
+    <t>newbalance</t>
+  </si>
+  <si>
+    <t>fila</t>
+  </si>
+  <si>
+    <t>plasticisland</t>
+  </si>
+  <si>
+    <t>brooksrunning</t>
+  </si>
+  <si>
+    <t>porter</t>
+  </si>
+  <si>
+    <t>prospecs</t>
+  </si>
+  <si>
+    <t>eastpak</t>
+  </si>
+  <si>
+    <t>eastlogue</t>
+  </si>
+  <si>
+    <t>reebok</t>
+  </si>
+  <si>
+    <t>rokit</t>
+  </si>
+  <si>
+    <t>dickies</t>
+  </si>
+  <si>
+    <t>samsonite</t>
+  </si>
+  <si>
+    <t>descente</t>
+  </si>
+  <si>
+    <t>danner</t>
+  </si>
+  <si>
+    <t>sketchers</t>
+  </si>
+  <si>
+    <t>forever21</t>
+  </si>
+  <si>
+    <t>nationalgeography</t>
+  </si>
+  <si>
+    <t>ourlegacy</t>
+  </si>
+  <si>
+    <t>brixton</t>
+  </si>
+  <si>
+    <t>braindead</t>
+  </si>
+  <si>
+    <t>millet</t>
+  </si>
+  <si>
+    <t>hm</t>
+  </si>
+  <si>
+    <t>iamnotahumanbeing</t>
+  </si>
+  <si>
+    <t>jlindeberg</t>
+  </si>
+  <si>
+    <t>vivastudio</t>
+  </si>
+  <si>
+    <t>filson</t>
+  </si>
+  <si>
+    <t>vetement</t>
+  </si>
+  <si>
+    <t>beatselectronics</t>
+  </si>
+  <si>
+    <t>pearlygates</t>
+  </si>
+  <si>
+    <t>abecrombiefitch</t>
+  </si>
+  <si>
+    <t>tomsshoes</t>
+  </si>
+  <si>
+    <t>covernat</t>
+  </si>
+  <si>
+    <t>teva</t>
+  </si>
+  <si>
+    <t>topten</t>
+  </si>
+  <si>
+    <t>jeep</t>
+  </si>
+  <si>
+    <t>tumi</t>
+  </si>
+  <si>
+    <t>norseproject</t>
+  </si>
+  <si>
+    <t>arcteryx</t>
+  </si>
+  <si>
+    <t>carhartt</t>
+  </si>
+  <si>
+    <t>stussy</t>
+  </si>
+  <si>
+    <t>barbour</t>
+  </si>
+  <si>
+    <t>liful</t>
+  </si>
+  <si>
+    <t>everywear</t>
+  </si>
+  <si>
+    <t>oakley</t>
+  </si>
+  <si>
+    <t>jillstuart</t>
+  </si>
+  <si>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>visvim</t>
+  </si>
+  <si>
+    <t>aldo</t>
+  </si>
+  <si>
+    <t>cpcompany</t>
+  </si>
+  <si>
+    <t>chums</t>
+  </si>
+  <si>
+    <t>freitag</t>
+  </si>
+  <si>
+    <t>wilson</t>
+  </si>
+  <si>
+    <t>zara</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>kangol</t>
+  </si>
+  <si>
+    <t>heronpreston</t>
+  </si>
+  <si>
+    <t>jansport</t>
+  </si>
+  <si>
+    <t>donothingcongress</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>offwhite</t>
+  </si>
+  <si>
+    <t>fredperry</t>
+  </si>
+  <si>
+    <t>adidasoriginal</t>
+  </si>
+  <si>
+    <t>palace</t>
+  </si>
+  <si>
+    <t>lap</t>
+  </si>
+  <si>
+    <t>commedesgarcons</t>
+  </si>
+  <si>
+    <t>coteciel</t>
+  </si>
+  <si>
+    <t>yeezy</t>
+  </si>
+  <si>
+    <t>clubmonaco</t>
+  </si>
+  <si>
+    <t>moschino</t>
+  </si>
+  <si>
+    <t>birkenstock</t>
+  </si>
+  <si>
+    <t>lacoste</t>
+  </si>
+  <si>
+    <t>kenzo</t>
+  </si>
+  <si>
+    <t>lanvin</t>
+  </si>
+  <si>
+    <t>benetton</t>
+  </si>
+  <si>
+    <t>palmangels</t>
+  </si>
+  <si>
+    <t>mhl</t>
+  </si>
+  <si>
+    <t>apc</t>
+  </si>
+  <si>
+    <t>medicomtoy</t>
+  </si>
+  <si>
+    <t>isseymiyake</t>
+  </si>
+  <si>
+    <t>pleatsplease</t>
+  </si>
+  <si>
+    <t>iise</t>
+  </si>
+  <si>
+    <t>valentino</t>
+  </si>
+  <si>
+    <t>poloralphlauren</t>
+  </si>
+  <si>
+    <t>maje</t>
+  </si>
+  <si>
+    <t>allsaints</t>
+  </si>
+  <si>
+    <t>rimowa</t>
+  </si>
+  <si>
+    <t>bershka</t>
+  </si>
+  <si>
+    <t>dkny</t>
+  </si>
+  <si>
+    <t>thombrowne</t>
+  </si>
+  <si>
+    <t>rayban</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>xlarge</t>
+  </si>
+  <si>
+    <t>yojiyamamoto</t>
+  </si>
+  <si>
+    <t>woolrich</t>
+  </si>
+  <si>
     <t>charms</t>
   </si>
   <si>
+    <t>jwanderson</t>
+  </si>
+  <si>
+    <t>mlb</t>
+  </si>
+  <si>
+    <t>ovo</t>
+  </si>
+  <si>
+    <t>ragbone</t>
+  </si>
+  <si>
+    <t>readymade</t>
+  </si>
+  <si>
+    <t>noah</t>
+  </si>
+  <si>
     <t>soup</t>
   </si>
   <si>
+    <t>needles</t>
+  </si>
+  <si>
     <t>cos</t>
   </si>
   <si>
-    <t>cutlerandgross</t>
-  </si>
-  <si>
-    <t>rickowens</t>
-  </si>
-  <si>
-    <t>ragbone</t>
-  </si>
-  <si>
-    <t>peaceminusone</t>
+    <t>coach</t>
+  </si>
+  <si>
+    <t>stereovinyls</t>
+  </si>
+  <si>
+    <t>cherryla</t>
+  </si>
+  <si>
+    <t>fillingpieces</t>
+  </si>
+  <si>
+    <t>kapital</t>
+  </si>
+  <si>
+    <t>midnightstudios</t>
+  </si>
+  <si>
+    <t>girlsdontcry</t>
+  </si>
+  <si>
+    <t>studioseven</t>
+  </si>
+  <si>
+    <t>urutokyo</t>
+  </si>
+  <si>
+    <t>reigningchamp</t>
+  </si>
+  <si>
+    <t>spyder</t>
+  </si>
+  <si>
+    <t>n21</t>
+  </si>
+  <si>
+    <t>adererror</t>
+  </si>
+  <si>
+    <t>stellamccartney</t>
+  </si>
+  <si>
+    <t>acnestudios</t>
+  </si>
+  <si>
+    <t>tommyhilfiger</t>
+  </si>
+  <si>
+    <t>1017alyx9sm</t>
+  </si>
+  <si>
+    <t>gosharubchinskiy</t>
+  </si>
+  <si>
+    <t>calvinklein</t>
+  </si>
+  <si>
+    <t>beyondcloset</t>
+  </si>
+  <si>
+    <t>ambush</t>
+  </si>
+  <si>
+    <t>mcm</t>
+  </si>
+  <si>
+    <t>plac</t>
+  </si>
+  <si>
+    <t>miumiu</t>
   </si>
   <si>
     <t>nohant</t>
   </si>
   <si>
-    <t>moschino</t>
-  </si>
-  <si>
-    <t>hoodbyair</t>
-  </si>
-  <si>
-    <t>mcm</t>
-  </si>
-  <si>
-    <t>Isabelmarant</t>
-  </si>
-  <si>
-    <t>marni</t>
-  </si>
-  <si>
-    <t>juunj</t>
-  </si>
-  <si>
-    <t>jwanderson</t>
-  </si>
-  <si>
     <t>suecommabonnie</t>
   </si>
   <si>
-    <t>tommyhilfiger</t>
-  </si>
-  <si>
-    <t>kenzo</t>
-  </si>
-  <si>
-    <t>yojiyamamoto</t>
-  </si>
-  <si>
-    <t>acnestudios</t>
-  </si>
-  <si>
-    <t>1017alyx9sm</t>
-  </si>
-  <si>
-    <t>alexanderwang</t>
-  </si>
-  <si>
-    <t>maisonmargiela</t>
-  </si>
-  <si>
-    <t>theory</t>
-  </si>
-  <si>
-    <t>balenciaga</t>
-  </si>
-  <si>
-    <t>balmain</t>
-  </si>
-  <si>
-    <t>lacoste</t>
-  </si>
-  <si>
-    <t>versace</t>
-  </si>
-  <si>
-    <t>amiri</t>
-  </si>
-  <si>
-    <t>abecrombiefitch</t>
-  </si>
-  <si>
-    <t>canadagoose</t>
-  </si>
-  <si>
-    <t>plasticisland</t>
-  </si>
-  <si>
-    <t>pleasuresclothing</t>
-  </si>
-  <si>
-    <t>dkny</t>
-  </si>
-  <si>
-    <t>urutokyo</t>
-  </si>
-  <si>
-    <t>awakeny</t>
-  </si>
-  <si>
-    <t>snowpeak</t>
-  </si>
-  <si>
-    <t>rimowa</t>
-  </si>
-  <si>
-    <t>vetement</t>
-  </si>
-  <si>
-    <t>jansport</t>
-  </si>
-  <si>
-    <t>eastlogue</t>
-  </si>
-  <si>
-    <t>aldo</t>
-  </si>
-  <si>
-    <t>eastpak</t>
-  </si>
-  <si>
-    <t>everywear</t>
-  </si>
-  <si>
-    <t>pleatsplease</t>
-  </si>
-  <si>
-    <t>barbour</t>
-  </si>
-  <si>
-    <t>hm</t>
-  </si>
-  <si>
-    <t>oioi</t>
-  </si>
-  <si>
-    <t>visvim</t>
-  </si>
-  <si>
-    <t>humanmade</t>
-  </si>
-  <si>
-    <t>mine</t>
-  </si>
-  <si>
-    <t>neighborhood</t>
-  </si>
-  <si>
-    <t>noah</t>
-  </si>
-  <si>
-    <t>gap</t>
-  </si>
-  <si>
-    <t>diesel</t>
-  </si>
-  <si>
-    <t>fog</t>
-  </si>
-  <si>
-    <t>discovery</t>
-  </si>
-  <si>
-    <t>adererror</t>
-  </si>
-  <si>
-    <t>donothingcongress</t>
-  </si>
-  <si>
-    <t>ovo</t>
-  </si>
-  <si>
-    <t>ambush</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>c2h4</t>
-  </si>
-  <si>
-    <t>undercover</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t>ami</t>
-  </si>
-  <si>
-    <t>tomboy</t>
-  </si>
-  <si>
-    <t>topshop</t>
-  </si>
-  <si>
-    <t>suicoke</t>
-  </si>
-  <si>
-    <t>xlarge</t>
-  </si>
-  <si>
-    <t>adidas</t>
-  </si>
-  <si>
-    <t>lafuma</t>
-  </si>
-  <si>
-    <t>millet</t>
-  </si>
-  <si>
-    <t>buckaroo</t>
-  </si>
-  <si>
-    <t>lecoqsportif</t>
-  </si>
-  <si>
-    <t>eider</t>
-  </si>
-  <si>
-    <t>uniqlo</t>
-  </si>
-  <si>
-    <t>umbro</t>
-  </si>
-  <si>
-    <t>dynafit</t>
-  </si>
-  <si>
-    <t>reebok</t>
-  </si>
-  <si>
-    <t>undefeated</t>
-  </si>
-  <si>
-    <t>kolonsport</t>
-  </si>
-  <si>
-    <t>montbell</t>
-  </si>
-  <si>
-    <t>champion</t>
-  </si>
-  <si>
-    <t>nike</t>
-  </si>
-  <si>
-    <t>rokit</t>
-  </si>
-  <si>
-    <t>acoldwall</t>
-  </si>
-  <si>
-    <t>gramicchi</t>
-  </si>
-  <si>
-    <t>haveagoodtime</t>
-  </si>
-  <si>
-    <t>seventhheaven</t>
-  </si>
-  <si>
-    <t>mlb</t>
-  </si>
-  <si>
-    <t>beanpole</t>
-  </si>
-  <si>
-    <t>munsingwear</t>
-  </si>
-  <si>
-    <t>gosharubchinskiy</t>
-  </si>
-  <si>
-    <t>palace</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>charleskeith</t>
-  </si>
-  <si>
-    <t>coach</t>
-  </si>
-  <si>
-    <t>thursdayisland</t>
-  </si>
-  <si>
-    <t>thombrowne</t>
-  </si>
-  <si>
-    <t>mains</t>
-  </si>
-  <si>
-    <t>marceloburlon</t>
-  </si>
-  <si>
-    <t>hugoboss</t>
-  </si>
-  <si>
-    <t>richardson</t>
-  </si>
-  <si>
-    <t>tomford</t>
-  </si>
-  <si>
-    <t>n21</t>
-  </si>
-  <si>
-    <t>crocs</t>
-  </si>
-  <si>
-    <t>miumiu</t>
-  </si>
-  <si>
-    <t>stellamccartney</t>
-  </si>
-  <si>
-    <t>porter</t>
-  </si>
-  <si>
-    <t>reigningchamp</t>
-  </si>
-  <si>
-    <t>cpcompany</t>
-  </si>
-  <si>
-    <t>coteciel</t>
-  </si>
-  <si>
-    <t>montblanc</t>
-  </si>
-  <si>
-    <t>dsquared2</t>
-  </si>
-  <si>
-    <t>bottegaveneta</t>
-  </si>
-  <si>
-    <t>stoneisland</t>
-  </si>
-  <si>
-    <t>ferragamo</t>
-  </si>
-  <si>
-    <t>gyakusou</t>
-  </si>
-  <si>
-    <t>underarmour</t>
-  </si>
-  <si>
-    <t>asics</t>
-  </si>
-  <si>
-    <t>topten</t>
-  </si>
-  <si>
-    <t>tomsshoes</t>
-  </si>
-  <si>
-    <t>chums</t>
-  </si>
-  <si>
-    <t>salomon</t>
-  </si>
-  <si>
-    <t>alphaindustry</t>
-  </si>
-  <si>
-    <t>descente</t>
-  </si>
-  <si>
-    <t>nepa</t>
-  </si>
-  <si>
-    <t>heritagefloss</t>
-  </si>
-  <si>
-    <t>giordano</t>
-  </si>
-  <si>
-    <t>prada</t>
-  </si>
-  <si>
-    <t>mulberry</t>
-  </si>
-  <si>
-    <t>givenchy</t>
-  </si>
-  <si>
-    <t>louisvuitton</t>
-  </si>
-  <si>
-    <t>jimmychoo</t>
-  </si>
-  <si>
-    <t>monclear</t>
-  </si>
-  <si>
-    <t>burberry</t>
-  </si>
-  <si>
-    <t>celine</t>
-  </si>
-  <si>
-    <t>chanel</t>
-  </si>
-  <si>
-    <t>gucci</t>
-  </si>
-  <si>
-    <t>hermes</t>
-  </si>
-  <si>
-    <t>stussy</t>
-  </si>
-  <si>
-    <t>supreme</t>
-  </si>
-  <si>
-    <t>sketchers</t>
-  </si>
-  <si>
-    <t>lmc</t>
-  </si>
-  <si>
-    <t>vans</t>
-  </si>
-  <si>
-    <t>newera</t>
-  </si>
-  <si>
-    <t>liful</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>yeezy</t>
-  </si>
-  <si>
-    <t>mhl</t>
-  </si>
-  <si>
-    <t>zucca</t>
-  </si>
-  <si>
-    <t>drmartens</t>
-  </si>
-  <si>
-    <t>hazzys</t>
-  </si>
-  <si>
-    <t>birkenstock</t>
-  </si>
-  <si>
-    <t>bape</t>
-  </si>
-  <si>
-    <t>bershka</t>
-  </si>
-  <si>
-    <t>brixton</t>
-  </si>
-  <si>
-    <t>forever21</t>
-  </si>
-  <si>
-    <t>aimeleondore</t>
-  </si>
-  <si>
-    <t>eytys</t>
-  </si>
-  <si>
-    <t>converse</t>
-  </si>
-  <si>
-    <t>daks</t>
-  </si>
-  <si>
-    <t>antisocialsocialclub</t>
-  </si>
-  <si>
-    <t>gmbh</t>
-  </si>
-  <si>
-    <t>nerdy</t>
-  </si>
-  <si>
-    <t>grds</t>
-  </si>
-  <si>
-    <t>nationalgeography</t>
-  </si>
-  <si>
-    <t>gentlemonster</t>
-  </si>
-  <si>
-    <t>palmangels</t>
-  </si>
-  <si>
-    <t>kuho</t>
-  </si>
-  <si>
-    <t>aecawhite</t>
-  </si>
-  <si>
-    <t>poloralphlauren</t>
-  </si>
-  <si>
-    <t>moscot</t>
-  </si>
-  <si>
-    <t>samsonite</t>
-  </si>
-  <si>
-    <t>clubmonaco</t>
-  </si>
-  <si>
-    <t>bally</t>
-  </si>
-  <si>
-    <t>tumi</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>billylosangeles</t>
-  </si>
-  <si>
-    <t>paulsmith</t>
-  </si>
-  <si>
-    <t>howlin</t>
-  </si>
-  <si>
-    <t>benetton</t>
-  </si>
-  <si>
-    <t>iise</t>
-  </si>
-  <si>
-    <t>jillstuart</t>
-  </si>
-  <si>
-    <t>martinerose</t>
-  </si>
-  <si>
-    <t>vivianwestwood</t>
-  </si>
-  <si>
-    <t>sandro</t>
-  </si>
-  <si>
-    <t>saintlaurent</t>
-  </si>
-  <si>
-    <t>alexandermcqueen</t>
-  </si>
-  <si>
-    <t>jilsander</t>
-  </si>
-  <si>
-    <t>dior</t>
-  </si>
-  <si>
-    <t>valentino</t>
-  </si>
-  <si>
-    <t>isseymiyake</t>
-  </si>
-  <si>
-    <t>marcjacobs</t>
-  </si>
-  <si>
-    <t>dolcegabbana</t>
-  </si>
-  <si>
-    <t>rafsimons</t>
-  </si>
-  <si>
-    <t>ermenegildozegna</t>
-  </si>
-  <si>
-    <t>fendi</t>
-  </si>
-  <si>
-    <t>maxmara</t>
-  </si>
-  <si>
-    <t>maje</t>
-  </si>
-  <si>
-    <t>lanvin</t>
-  </si>
-  <si>
-    <t>tods</t>
-  </si>
-  <si>
-    <t>heronpreston</t>
-  </si>
-  <si>
-    <t>toryburch</t>
-  </si>
-  <si>
-    <t>michaelkors</t>
-  </si>
-  <si>
-    <t>zara</t>
-  </si>
-  <si>
-    <t>fillingpieces</t>
-  </si>
-  <si>
-    <t>iamnotahumanbeing</t>
-  </si>
-  <si>
-    <t>midnightstudios</t>
-  </si>
-  <si>
-    <t>columbiasportswear</t>
-  </si>
-  <si>
-    <t>obey</t>
-  </si>
-  <si>
-    <t>critic</t>
-  </si>
-  <si>
-    <t>nonnative</t>
-  </si>
-  <si>
-    <t>apc</t>
-  </si>
-  <si>
-    <t>johnelliott</t>
-  </si>
-  <si>
-    <t>99percentis</t>
-  </si>
-  <si>
-    <t>aape</t>
-  </si>
-  <si>
-    <t>8seconds</t>
-  </si>
-  <si>
-    <t>braindead</t>
-  </si>
-  <si>
-    <t>maisonkitsune</t>
-  </si>
-  <si>
-    <t>keds</t>
-  </si>
-  <si>
-    <t>calvinklein</t>
-  </si>
-  <si>
-    <t>cavempt</t>
-  </si>
-  <si>
-    <t>beyondcloset</t>
-  </si>
-  <si>
-    <t>custommellow</t>
-  </si>
-  <si>
-    <t>kith</t>
-  </si>
-  <si>
-    <t>mandarinaduck</t>
-  </si>
-  <si>
-    <t>polarskateco</t>
-  </si>
-  <si>
-    <t>offwhite</t>
-  </si>
-  <si>
-    <t>whitemountaineering</t>
-  </si>
-  <si>
-    <t>onitsukatiger</t>
-  </si>
-  <si>
-    <t>openingceremony</t>
-  </si>
-  <si>
-    <t>girlsdontcry</t>
-  </si>
-  <si>
-    <t>hconnect</t>
-  </si>
-  <si>
-    <t>gstarraw</t>
-  </si>
-  <si>
-    <t>plac</t>
-  </si>
-  <si>
-    <t>henderscheme</t>
-  </si>
-  <si>
-    <t>placesplusfaces</t>
-  </si>
-  <si>
-    <t>thisisneverthat</t>
-  </si>
-  <si>
-    <t>thrasher</t>
-  </si>
-  <si>
-    <t>gregory</t>
-  </si>
-  <si>
-    <t>kangol</t>
-  </si>
-  <si>
-    <t>vivastudio</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>herschel</t>
-  </si>
-  <si>
-    <t>teva</t>
-  </si>
-  <si>
-    <t>covernat</t>
-  </si>
-  <si>
-    <t>newbalance</t>
-  </si>
-  <si>
-    <t>wtaps</t>
-  </si>
-  <si>
-    <t>fila</t>
-  </si>
-  <si>
-    <t>puma</t>
-  </si>
-  <si>
-    <t>lynn</t>
-  </si>
-  <si>
-    <t>acronym</t>
-  </si>
-  <si>
-    <t>dickies</t>
-  </si>
-  <si>
-    <t>danner</t>
-  </si>
-  <si>
-    <t>freitag</t>
-  </si>
-  <si>
-    <t>beatselectronics</t>
-  </si>
-  <si>
-    <t>jeep</t>
-  </si>
-  <si>
-    <t>muji</t>
-  </si>
-  <si>
-    <t>norseproject</t>
-  </si>
-  <si>
-    <t>ourlegacy</t>
-  </si>
-  <si>
-    <t>goldengoose</t>
-  </si>
-  <si>
-    <t>incase</t>
-  </si>
-  <si>
-    <t>ugg</t>
-  </si>
-  <si>
-    <t>brooksrunning</t>
-  </si>
-  <si>
-    <t>filson</t>
-  </si>
-  <si>
-    <t>carhartt</t>
-  </si>
-  <si>
-    <t>thenorthface</t>
-  </si>
-  <si>
-    <t>helinox</t>
-  </si>
-  <si>
-    <t>patagonia</t>
-  </si>
-  <si>
-    <t>taylormade</t>
-  </si>
-  <si>
-    <t>dailypaper</t>
-  </si>
-  <si>
-    <t>arcteryx</t>
-  </si>
-  <si>
-    <t>huf</t>
-  </si>
-  <si>
-    <t>oakley</t>
-  </si>
-  <si>
-    <t>mizuno</t>
-  </si>
-  <si>
-    <t>wilson</t>
-  </si>
-  <si>
-    <t>blackyak</t>
-  </si>
-  <si>
-    <t>prospecs</t>
-  </si>
-  <si>
-    <t>allsaints</t>
-  </si>
-  <si>
-    <t>helmutlang</t>
-  </si>
-  <si>
-    <t>fredperry</t>
-  </si>
-  <si>
-    <t>adidasoriginal</t>
-  </si>
-  <si>
-    <t>veja</t>
-  </si>
-  <si>
-    <t>readymade</t>
-  </si>
-  <si>
-    <t>levis</t>
-  </si>
-  <si>
-    <t>medicomtoy</t>
-  </si>
-  <si>
-    <t>cherryla</t>
-  </si>
-  <si>
-    <t>stereovinyls</t>
-  </si>
-  <si>
-    <t>studioseven</t>
-  </si>
-  <si>
-    <t>superga</t>
-  </si>
-  <si>
-    <t>tartoptical</t>
-  </si>
-  <si>
-    <t>commedesgarcons</t>
-  </si>
-  <si>
-    <t>lap</t>
-  </si>
-  <si>
-    <t>woolrich</t>
-  </si>
-  <si>
-    <t>kapital</t>
-  </si>
-  <si>
-    <t>k2</t>
-  </si>
-  <si>
-    <t>jlindeberg</t>
-  </si>
-  <si>
-    <t>barrel</t>
-  </si>
-  <si>
-    <t>pearlygates</t>
-  </si>
-  <si>
     <t>mindbridge</t>
-  </si>
-  <si>
-    <t>titleist</t>
-  </si>
-  <si>
-    <t>rayban</t>
-  </si>
-  <si>
-    <t>rockymountainfeatherbed</t>
-  </si>
-  <si>
-    <t>sacai</t>
-  </si>
-  <si>
-    <t>spyder</t>
-  </si>
-  <si>
-    <t>mastermind</t>
-  </si>
-  <si>
-    <t>keen</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1508,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>127</v>
       </c>
       <c r="C127">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>130</v>
       </c>
       <c r="C130">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>133</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>134</v>
       </c>
       <c r="C134">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>135</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>136</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>137</v>
       </c>
       <c r="C137">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>138</v>
       </c>
       <c r="C138">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>139</v>
       </c>
       <c r="C139">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>142</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>143</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>146</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>148</v>
       </c>
       <c r="C148">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>149</v>
       </c>
       <c r="C149">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>150</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>151</v>
       </c>
       <c r="C151">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>152</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>153</v>
       </c>
       <c r="C153">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>154</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>155</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>158</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>159</v>
       </c>
       <c r="C159">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>160</v>
       </c>
       <c r="C160">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>161</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>162</v>
       </c>
       <c r="C162">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>163</v>
       </c>
       <c r="C163">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>164</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>165</v>
       </c>
       <c r="C165">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>166</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>167</v>
       </c>
       <c r="C167">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>168</v>
       </c>
       <c r="C168">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>169</v>
       </c>
       <c r="C169">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>170</v>
       </c>
       <c r="C170">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>171</v>
       </c>
       <c r="C171">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>172</v>
       </c>
       <c r="C172">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>173</v>
       </c>
       <c r="C173">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>174</v>
       </c>
       <c r="C174">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>175</v>
       </c>
       <c r="C175">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>176</v>
       </c>
       <c r="C176">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>177</v>
       </c>
       <c r="C177">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>178</v>
       </c>
       <c r="C178">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>179</v>
       </c>
       <c r="C179">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>180</v>
       </c>
       <c r="C180">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>181</v>
       </c>
       <c r="C181">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>182</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>183</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>184</v>
       </c>
       <c r="C184">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>185</v>
       </c>
       <c r="C185">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>186</v>
       </c>
       <c r="C186">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>187</v>
       </c>
       <c r="C187">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>188</v>
       </c>
       <c r="C188">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>189</v>
       </c>
       <c r="C189">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>190</v>
       </c>
       <c r="C190">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>191</v>
       </c>
       <c r="C191">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>192</v>
       </c>
       <c r="C192">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>193</v>
       </c>
       <c r="C193">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>194</v>
       </c>
       <c r="C194">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>195</v>
       </c>
       <c r="C195">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>196</v>
       </c>
       <c r="C196">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>197</v>
       </c>
       <c r="C197">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>198</v>
       </c>
       <c r="C198">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3499,7 +3499,7 @@
         <v>199</v>
       </c>
       <c r="C199">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3510,7 +3510,7 @@
         <v>200</v>
       </c>
       <c r="C200">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3521,7 +3521,7 @@
         <v>201</v>
       </c>
       <c r="C201">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3532,7 +3532,7 @@
         <v>202</v>
       </c>
       <c r="C202">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3543,7 +3543,7 @@
         <v>203</v>
       </c>
       <c r="C203">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3554,7 +3554,7 @@
         <v>204</v>
       </c>
       <c r="C204">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>205</v>
       </c>
       <c r="C205">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3576,7 +3576,7 @@
         <v>206</v>
       </c>
       <c r="C206">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3587,7 +3587,7 @@
         <v>207</v>
       </c>
       <c r="C207">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3598,7 +3598,7 @@
         <v>208</v>
       </c>
       <c r="C208">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3609,7 +3609,7 @@
         <v>209</v>
       </c>
       <c r="C209">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3620,7 +3620,7 @@
         <v>210</v>
       </c>
       <c r="C210">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3631,7 +3631,7 @@
         <v>211</v>
       </c>
       <c r="C211">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3642,7 +3642,7 @@
         <v>212</v>
       </c>
       <c r="C212">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>213</v>
       </c>
       <c r="C213">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3664,7 +3664,7 @@
         <v>214</v>
       </c>
       <c r="C214">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>215</v>
       </c>
       <c r="C215">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3686,7 +3686,7 @@
         <v>216</v>
       </c>
       <c r="C216">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3697,7 +3697,7 @@
         <v>217</v>
       </c>
       <c r="C217">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3708,7 +3708,7 @@
         <v>218</v>
       </c>
       <c r="C218">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3719,7 +3719,7 @@
         <v>219</v>
       </c>
       <c r="C219">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3730,7 +3730,7 @@
         <v>220</v>
       </c>
       <c r="C220">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3741,7 +3741,7 @@
         <v>221</v>
       </c>
       <c r="C221">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3752,7 +3752,7 @@
         <v>222</v>
       </c>
       <c r="C222">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>223</v>
       </c>
       <c r="C223">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3774,7 +3774,7 @@
         <v>224</v>
       </c>
       <c r="C224">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>225</v>
       </c>
       <c r="C225">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3796,7 +3796,7 @@
         <v>226</v>
       </c>
       <c r="C226">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>227</v>
       </c>
       <c r="C227">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3818,7 +3818,7 @@
         <v>228</v>
       </c>
       <c r="C228">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3829,7 +3829,7 @@
         <v>229</v>
       </c>
       <c r="C229">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3840,7 +3840,7 @@
         <v>230</v>
       </c>
       <c r="C230">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3851,7 +3851,7 @@
         <v>231</v>
       </c>
       <c r="C231">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3862,7 +3862,7 @@
         <v>232</v>
       </c>
       <c r="C232">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>233</v>
       </c>
       <c r="C233">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>234</v>
       </c>
       <c r="C234">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3895,7 +3895,7 @@
         <v>235</v>
       </c>
       <c r="C235">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3906,7 +3906,7 @@
         <v>236</v>
       </c>
       <c r="C236">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3917,7 +3917,7 @@
         <v>237</v>
       </c>
       <c r="C237">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3928,7 +3928,7 @@
         <v>238</v>
       </c>
       <c r="C238">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3939,7 +3939,7 @@
         <v>239</v>
       </c>
       <c r="C239">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3950,7 +3950,7 @@
         <v>240</v>
       </c>
       <c r="C240">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>241</v>
       </c>
       <c r="C241">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>242</v>
       </c>
       <c r="C242">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3983,7 +3983,7 @@
         <v>243</v>
       </c>
       <c r="C243">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>244</v>
       </c>
       <c r="C244">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4005,7 +4005,7 @@
         <v>245</v>
       </c>
       <c r="C245">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4016,7 +4016,7 @@
         <v>246</v>
       </c>
       <c r="C246">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4027,7 +4027,7 @@
         <v>247</v>
       </c>
       <c r="C247">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4038,7 +4038,7 @@
         <v>248</v>
       </c>
       <c r="C248">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4049,7 +4049,7 @@
         <v>249</v>
       </c>
       <c r="C249">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4060,7 +4060,7 @@
         <v>250</v>
       </c>
       <c r="C250">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4071,7 +4071,7 @@
         <v>251</v>
       </c>
       <c r="C251">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>252</v>
       </c>
       <c r="C252">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4093,7 +4093,7 @@
         <v>253</v>
       </c>
       <c r="C253">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>254</v>
       </c>
       <c r="C254">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4115,7 +4115,7 @@
         <v>255</v>
       </c>
       <c r="C255">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4126,7 +4126,7 @@
         <v>256</v>
       </c>
       <c r="C256">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4137,7 +4137,7 @@
         <v>257</v>
       </c>
       <c r="C257">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4148,7 +4148,7 @@
         <v>258</v>
       </c>
       <c r="C258">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4159,7 +4159,7 @@
         <v>259</v>
       </c>
       <c r="C259">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4170,7 +4170,7 @@
         <v>260</v>
       </c>
       <c r="C260">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4181,7 +4181,7 @@
         <v>261</v>
       </c>
       <c r="C261">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4192,7 +4192,7 @@
         <v>262</v>
       </c>
       <c r="C262">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4203,7 +4203,7 @@
         <v>263</v>
       </c>
       <c r="C263">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>264</v>
       </c>
       <c r="C264">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4225,7 +4225,7 @@
         <v>265</v>
       </c>
       <c r="C265">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4236,7 +4236,7 @@
         <v>266</v>
       </c>
       <c r="C266">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4247,7 +4247,7 @@
         <v>267</v>
       </c>
       <c r="C267">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4258,7 +4258,7 @@
         <v>268</v>
       </c>
       <c r="C268">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4269,7 +4269,7 @@
         <v>269</v>
       </c>
       <c r="C269">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4280,7 +4280,7 @@
         <v>270</v>
       </c>
       <c r="C270">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4291,7 +4291,7 @@
         <v>271</v>
       </c>
       <c r="C271">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4302,7 +4302,7 @@
         <v>272</v>
       </c>
       <c r="C272">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>273</v>
       </c>
       <c r="C273">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4324,7 +4324,7 @@
         <v>274</v>
       </c>
       <c r="C274">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4335,7 +4335,7 @@
         <v>275</v>
       </c>
       <c r="C275">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4346,7 +4346,7 @@
         <v>276</v>
       </c>
       <c r="C276">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4357,7 +4357,7 @@
         <v>277</v>
       </c>
       <c r="C277">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4368,7 +4368,7 @@
         <v>278</v>
       </c>
       <c r="C278">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4379,7 +4379,7 @@
         <v>279</v>
       </c>
       <c r="C279">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4390,7 +4390,7 @@
         <v>280</v>
       </c>
       <c r="C280">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4401,7 +4401,7 @@
         <v>281</v>
       </c>
       <c r="C281">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4412,7 +4412,7 @@
         <v>282</v>
       </c>
       <c r="C282">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4423,7 +4423,7 @@
         <v>283</v>
       </c>
       <c r="C283">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4434,7 +4434,7 @@
         <v>284</v>
       </c>
       <c r="C284">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4445,7 +4445,7 @@
         <v>285</v>
       </c>
       <c r="C285">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4456,7 +4456,7 @@
         <v>286</v>
       </c>
       <c r="C286">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4467,7 +4467,7 @@
         <v>287</v>
       </c>
       <c r="C287">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4478,7 +4478,7 @@
         <v>288</v>
       </c>
       <c r="C288">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4489,7 +4489,7 @@
         <v>289</v>
       </c>
       <c r="C289">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4500,7 +4500,7 @@
         <v>290</v>
       </c>
       <c r="C290">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4511,7 +4511,7 @@
         <v>291</v>
       </c>
       <c r="C291">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>292</v>
       </c>
       <c r="C292">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>293</v>
       </c>
       <c r="C293">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4544,7 +4544,7 @@
         <v>294</v>
       </c>
       <c r="C294">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4555,7 +4555,7 @@
         <v>295</v>
       </c>
       <c r="C295">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4566,7 +4566,7 @@
         <v>296</v>
       </c>
       <c r="C296">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4577,7 +4577,7 @@
         <v>297</v>
       </c>
       <c r="C297">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4588,7 +4588,7 @@
         <v>298</v>
       </c>
       <c r="C298">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4599,7 +4599,7 @@
         <v>299</v>
       </c>
       <c r="C299">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4610,7 +4610,7 @@
         <v>300</v>
       </c>
       <c r="C300">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4621,7 +4621,7 @@
         <v>301</v>
       </c>
       <c r="C301">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4632,7 +4632,7 @@
         <v>302</v>
       </c>
       <c r="C302">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>303</v>
       </c>
       <c r="C303">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4654,7 +4654,7 @@
         <v>304</v>
       </c>
       <c r="C304">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4665,7 +4665,7 @@
         <v>305</v>
       </c>
       <c r="C305">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4676,7 +4676,7 @@
         <v>306</v>
       </c>
       <c r="C306">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4687,7 +4687,7 @@
         <v>307</v>
       </c>
       <c r="C307">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4698,7 +4698,7 @@
         <v>308</v>
       </c>
       <c r="C308">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4709,7 +4709,7 @@
         <v>309</v>
       </c>
       <c r="C309">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4720,7 +4720,7 @@
         <v>310</v>
       </c>
       <c r="C310">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4731,7 +4731,7 @@
         <v>311</v>
       </c>
       <c r="C311">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>312</v>
       </c>
       <c r="C312">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/clustered.xlsx
+++ b/clustered.xlsx
@@ -22,937 +22,937 @@
     <t>cluster</t>
   </si>
   <si>
+    <t>032c</t>
+  </si>
+  <si>
+    <t>gosharubchinskiy</t>
+  </si>
+  <si>
+    <t>marceloburlon</t>
+  </si>
+  <si>
+    <t>acnestudios</t>
+  </si>
+  <si>
+    <t>peaceminusone</t>
+  </si>
+  <si>
+    <t>tomford</t>
+  </si>
+  <si>
+    <t>richardson</t>
+  </si>
+  <si>
+    <t>rockymountainfeatherbed</t>
+  </si>
+  <si>
+    <t>beyondcloset</t>
+  </si>
+  <si>
+    <t>beanpole</t>
+  </si>
+  <si>
+    <t>keds</t>
+  </si>
+  <si>
+    <t>nohant</t>
+  </si>
+  <si>
+    <t>charms</t>
+  </si>
+  <si>
+    <t>adidasoriginal</t>
+  </si>
+  <si>
+    <t>1017alyx9sm</t>
+  </si>
+  <si>
+    <t>braindead</t>
+  </si>
+  <si>
+    <t>hazzys</t>
+  </si>
+  <si>
+    <t>yojiyamamoto</t>
+  </si>
+  <si>
+    <t>helmutlang</t>
+  </si>
+  <si>
+    <t>beatselectronics</t>
+  </si>
+  <si>
+    <t>xlarge</t>
+  </si>
+  <si>
+    <t>aape</t>
+  </si>
+  <si>
+    <t>kenzo</t>
+  </si>
+  <si>
+    <t>maisonkitsune</t>
+  </si>
+  <si>
+    <t>mandarinaduck</t>
+  </si>
+  <si>
+    <t>mastermind</t>
+  </si>
+  <si>
+    <t>medicomtoy</t>
+  </si>
+  <si>
+    <t>noah</t>
+  </si>
+  <si>
+    <t>ragbone</t>
+  </si>
+  <si>
+    <t>visvim</t>
+  </si>
+  <si>
+    <t>offwhite</t>
+  </si>
+  <si>
+    <t>tommyhilfiger</t>
+  </si>
+  <si>
+    <t>columbiasportswear</t>
+  </si>
+  <si>
+    <t>dailypaper</t>
+  </si>
+  <si>
+    <t>everywear</t>
+  </si>
+  <si>
+    <t>gentlemonster</t>
+  </si>
+  <si>
+    <t>spyder</t>
+  </si>
+  <si>
+    <t>gramicchi</t>
+  </si>
+  <si>
+    <t>helinox</t>
+  </si>
+  <si>
+    <t>palmangels</t>
+  </si>
+  <si>
+    <t>wilson</t>
+  </si>
+  <si>
+    <t>howlin</t>
+  </si>
+  <si>
+    <t>huf</t>
+  </si>
+  <si>
+    <t>montbell</t>
+  </si>
+  <si>
+    <t>samsonite</t>
+  </si>
+  <si>
+    <t>lap</t>
+  </si>
+  <si>
+    <t>levis</t>
+  </si>
+  <si>
+    <t>patagonia</t>
+  </si>
+  <si>
+    <t>lacoste</t>
+  </si>
+  <si>
+    <t>zucca</t>
+  </si>
+  <si>
+    <t>8seconds</t>
+  </si>
+  <si>
+    <t>aldo</t>
+  </si>
+  <si>
+    <t>arcteryx</t>
+  </si>
+  <si>
+    <t>brooksrunning</t>
+  </si>
+  <si>
+    <t>forever21</t>
+  </si>
+  <si>
+    <t>eastlogue</t>
+  </si>
+  <si>
+    <t>seventhheaven</t>
+  </si>
+  <si>
+    <t>reebok</t>
+  </si>
+  <si>
+    <t>sketchers</t>
+  </si>
+  <si>
+    <t>gyakusou</t>
+  </si>
+  <si>
+    <t>allsaints</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>alphaindustry</t>
+  </si>
+  <si>
+    <t>martinerose</t>
+  </si>
+  <si>
+    <t>onitsukatiger</t>
+  </si>
+  <si>
+    <t>whitemountaineering</t>
+  </si>
+  <si>
+    <t>yeezy</t>
+  </si>
+  <si>
+    <t>nike</t>
+  </si>
+  <si>
+    <t>champion</t>
+  </si>
+  <si>
+    <t>nerdy</t>
+  </si>
+  <si>
+    <t>girlsdontcry</t>
+  </si>
+  <si>
+    <t>mcm</t>
+  </si>
+  <si>
+    <t>rafsimons</t>
+  </si>
+  <si>
+    <t>polarskateco</t>
+  </si>
+  <si>
+    <t>openingceremony</t>
+  </si>
+  <si>
+    <t>jwanderson</t>
+  </si>
+  <si>
+    <t>ovo</t>
+  </si>
+  <si>
+    <t>cutlerandgross</t>
+  </si>
+  <si>
+    <t>custommellow</t>
+  </si>
+  <si>
+    <t>kith</t>
+  </si>
+  <si>
+    <t>suecommabonnie</t>
+  </si>
+  <si>
+    <t>juunj</t>
+  </si>
+  <si>
+    <t>henderscheme</t>
+  </si>
+  <si>
+    <t>daks</t>
+  </si>
+  <si>
+    <t>topten</t>
+  </si>
+  <si>
+    <t>vetement</t>
+  </si>
+  <si>
+    <t>needles</t>
+  </si>
+  <si>
+    <t>heritagefloss</t>
+  </si>
+  <si>
+    <t>salomon</t>
+  </si>
+  <si>
+    <t>thisisneverthat</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>plac</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>lecoqsportif</t>
+  </si>
+  <si>
+    <t>gstarraw</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>bershka</t>
+  </si>
+  <si>
+    <t>haveagoodtime</t>
+  </si>
+  <si>
+    <t>mlb</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>undefeated</t>
+  </si>
+  <si>
+    <t>umbro</t>
+  </si>
+  <si>
     <t>critic</t>
   </si>
   <si>
+    <t>barbour</t>
+  </si>
+  <si>
+    <t>ugg</t>
+  </si>
+  <si>
+    <t>incase</t>
+  </si>
+  <si>
+    <t>norseproject</t>
+  </si>
+  <si>
+    <t>dkny</t>
+  </si>
+  <si>
+    <t>tomsshoes</t>
+  </si>
+  <si>
+    <t>eastpak</t>
+  </si>
+  <si>
+    <t>jeep</t>
+  </si>
+  <si>
+    <t>birkenstock</t>
+  </si>
+  <si>
+    <t>dickies</t>
+  </si>
+  <si>
+    <t>plasticisland</t>
+  </si>
+  <si>
+    <t>covernat</t>
+  </si>
+  <si>
+    <t>gregory</t>
+  </si>
+  <si>
+    <t>blackyak</t>
+  </si>
+  <si>
+    <t>oioi</t>
+  </si>
+  <si>
+    <t>teva</t>
+  </si>
+  <si>
+    <t>vivastudio</t>
+  </si>
+  <si>
+    <t>muji</t>
+  </si>
+  <si>
+    <t>pearlygates</t>
+  </si>
+  <si>
+    <t>descente</t>
+  </si>
+  <si>
+    <t>jansport</t>
+  </si>
+  <si>
+    <t>prospecs</t>
+  </si>
+  <si>
+    <t>kangol</t>
+  </si>
+  <si>
+    <t>newbalance</t>
+  </si>
+  <si>
+    <t>kolonsport</t>
+  </si>
+  <si>
+    <t>asics</t>
+  </si>
+  <si>
+    <t>lmc</t>
+  </si>
+  <si>
+    <t>lafuma</t>
+  </si>
+  <si>
+    <t>giordano</t>
+  </si>
+  <si>
+    <t>nepa</t>
+  </si>
+  <si>
+    <t>drmartens</t>
+  </si>
+  <si>
+    <t>eider</t>
+  </si>
+  <si>
+    <t>fila</t>
+  </si>
+  <si>
+    <t>placesplusfaces</t>
+  </si>
+  <si>
+    <t>midnightstudios</t>
+  </si>
+  <si>
+    <t>palace</t>
+  </si>
+  <si>
+    <t>johnelliott</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>ambush</t>
+  </si>
+  <si>
+    <t>tomboy</t>
+  </si>
+  <si>
+    <t>c2h4</t>
+  </si>
+  <si>
+    <t>donothingcongress</t>
+  </si>
+  <si>
+    <t>99percentis</t>
+  </si>
+  <si>
+    <t>rickowens</t>
+  </si>
+  <si>
+    <t>hoodbyair</t>
+  </si>
+  <si>
+    <t>fog</t>
+  </si>
+  <si>
+    <t>aimeleondore</t>
+  </si>
+  <si>
+    <t>michaelkors</t>
+  </si>
+  <si>
+    <t>alexandermcqueen</t>
+  </si>
+  <si>
+    <t>valentino</t>
+  </si>
+  <si>
+    <t>dior</t>
+  </si>
+  <si>
+    <t>tods</t>
+  </si>
+  <si>
+    <t>fendi</t>
+  </si>
+  <si>
+    <t>maxmara</t>
+  </si>
+  <si>
+    <t>n21</t>
+  </si>
+  <si>
+    <t>jimmychoo</t>
+  </si>
+  <si>
+    <t>marcjacobs</t>
+  </si>
+  <si>
+    <t>charleskeith</t>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>titleist</t>
+  </si>
+  <si>
+    <t>thenorthface</t>
+  </si>
+  <si>
+    <t>taylormade</t>
+  </si>
+  <si>
+    <t>ourlegacy</t>
+  </si>
+  <si>
+    <t>jlindeberg</t>
+  </si>
+  <si>
+    <t>kapital</t>
+  </si>
+  <si>
+    <t>rayban</t>
+  </si>
+  <si>
+    <t>humanmade</t>
+  </si>
+  <si>
+    <t>antisocialsocialclub</t>
+  </si>
+  <si>
+    <t>undercover</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>cavempt</t>
+  </si>
+  <si>
+    <t>cpcompany</t>
+  </si>
+  <si>
+    <t>thombrowne</t>
+  </si>
+  <si>
+    <t>woolrich</t>
+  </si>
+  <si>
+    <t>rokit</t>
+  </si>
+  <si>
+    <t>superga</t>
+  </si>
+  <si>
+    <t>tartoptical</t>
+  </si>
+  <si>
+    <t>nationalgeography</t>
+  </si>
+  <si>
+    <t>uniqlo</t>
+  </si>
+  <si>
+    <t>urutokyo</t>
+  </si>
+  <si>
+    <t>kuho</t>
+  </si>
+  <si>
+    <t>jillstuart</t>
+  </si>
+  <si>
+    <t>iise</t>
+  </si>
+  <si>
+    <t>hm</t>
+  </si>
+  <si>
+    <t>heronpreston</t>
+  </si>
+  <si>
+    <t>crocs</t>
+  </si>
+  <si>
+    <t>dynafit</t>
+  </si>
+  <si>
+    <t>billylosangeles</t>
+  </si>
+  <si>
+    <t>gmbh</t>
+  </si>
+  <si>
+    <t>grds</t>
+  </si>
+  <si>
+    <t>miumiu</t>
+  </si>
+  <si>
+    <t>keen</t>
+  </si>
+  <si>
+    <t>maisonmargiela</t>
+  </si>
+  <si>
+    <t>saintlaurent</t>
+  </si>
+  <si>
+    <t>lanvin</t>
+  </si>
+  <si>
+    <t>ermenegildozegna</t>
+  </si>
+  <si>
+    <t>dolcegabbana</t>
+  </si>
+  <si>
+    <t>coteciel</t>
+  </si>
+  <si>
+    <t>versace</t>
+  </si>
+  <si>
+    <t>moschino</t>
+  </si>
+  <si>
+    <t>vivianwestwood</t>
+  </si>
+  <si>
+    <t>celine</t>
+  </si>
+  <si>
+    <t>readymade</t>
+  </si>
+  <si>
+    <t>Isabelmarant</t>
+  </si>
+  <si>
+    <t>acoldwall</t>
+  </si>
+  <si>
+    <t>jilsander</t>
+  </si>
+  <si>
+    <t>alexanderwang</t>
+  </si>
+  <si>
+    <t>studioseven</t>
+  </si>
+  <si>
+    <t>aecawhite</t>
+  </si>
+  <si>
+    <t>marni</t>
+  </si>
+  <si>
+    <t>lynn</t>
+  </si>
+  <si>
+    <t>moscot</t>
+  </si>
+  <si>
+    <t>liful</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>apc</t>
+  </si>
+  <si>
+    <t>stussy</t>
+  </si>
+  <si>
     <t>neighborhood</t>
   </si>
   <si>
-    <t>antisocialsocialclub</t>
-  </si>
-  <si>
-    <t>alphaindustry</t>
-  </si>
-  <si>
-    <t>lmc</t>
-  </si>
-  <si>
-    <t>kolonsport</t>
-  </si>
-  <si>
-    <t>keen</t>
-  </si>
-  <si>
-    <t>nepa</t>
-  </si>
-  <si>
-    <t>hazzys</t>
-  </si>
-  <si>
-    <t>aecawhite</t>
-  </si>
-  <si>
-    <t>acoldwall</t>
-  </si>
-  <si>
-    <t>grds</t>
-  </si>
-  <si>
-    <t>gramicchi</t>
-  </si>
-  <si>
-    <t>daks</t>
-  </si>
-  <si>
-    <t>tomboy</t>
-  </si>
-  <si>
-    <t>custommellow</t>
-  </si>
-  <si>
-    <t>hoodbyair</t>
-  </si>
-  <si>
-    <t>howlin</t>
-  </si>
-  <si>
-    <t>billylosangeles</t>
-  </si>
-  <si>
-    <t>gstarraw</t>
-  </si>
-  <si>
-    <t>kith</t>
-  </si>
-  <si>
-    <t>c2h4</t>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>mhl</t>
+  </si>
+  <si>
+    <t>brixton</t>
+  </si>
+  <si>
+    <t>thrasher</t>
+  </si>
+  <si>
+    <t>newera</t>
+  </si>
+  <si>
+    <t>eytys</t>
+  </si>
+  <si>
+    <t>danner</t>
+  </si>
+  <si>
+    <t>converse</t>
+  </si>
+  <si>
+    <t>vans</t>
+  </si>
+  <si>
+    <t>chums</t>
+  </si>
+  <si>
+    <t>wtaps</t>
+  </si>
+  <si>
+    <t>carhartt</t>
+  </si>
+  <si>
+    <t>freitag</t>
+  </si>
+  <si>
+    <t>herschel</t>
+  </si>
+  <si>
+    <t>suicoke</t>
+  </si>
+  <si>
+    <t>obey</t>
+  </si>
+  <si>
+    <t>bape</t>
+  </si>
+  <si>
+    <t>iamnotahumanbeing</t>
+  </si>
+  <si>
+    <t>ami</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>hugoboss</t>
+  </si>
+  <si>
+    <t>stellamccartney</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>hconnect</t>
+  </si>
+  <si>
+    <t>calvinklein</t>
+  </si>
+  <si>
+    <t>millet</t>
+  </si>
+  <si>
+    <t>mizuno</t>
+  </si>
+  <si>
+    <t>buckaroo</t>
+  </si>
+  <si>
+    <t>underarmour</t>
+  </si>
+  <si>
+    <t>mindbridge</t>
+  </si>
+  <si>
+    <t>benetton</t>
+  </si>
+  <si>
+    <t>oakley</t>
+  </si>
+  <si>
+    <t>abecrombiefitch</t>
+  </si>
+  <si>
+    <t>pleasuresclothing</t>
+  </si>
+  <si>
+    <t>monclear</t>
+  </si>
+  <si>
+    <t>givenchy</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>canadagoose</t>
+  </si>
+  <si>
+    <t>maje</t>
+  </si>
+  <si>
+    <t>sandro</t>
+  </si>
+  <si>
+    <t>thursdayisland</t>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t>discovery</t>
+  </si>
+  <si>
+    <t>munsingwear</t>
+  </si>
+  <si>
+    <t>soup</t>
+  </si>
+  <si>
+    <t>rimowa</t>
+  </si>
+  <si>
+    <t>paulsmith</t>
+  </si>
+  <si>
+    <t>commedesgarcons</t>
+  </si>
+  <si>
+    <t>zara</t>
+  </si>
+  <si>
+    <t>balenciaga</t>
+  </si>
+  <si>
+    <t>dsquared2</t>
+  </si>
+  <si>
+    <t>snowpeak</t>
+  </si>
+  <si>
+    <t>porter</t>
+  </si>
+  <si>
+    <t>goldengoose</t>
+  </si>
+  <si>
+    <t>filson</t>
+  </si>
+  <si>
+    <t>pleatsplease</t>
+  </si>
+  <si>
+    <t>chanel</t>
+  </si>
+  <si>
+    <t>louisvuitton</t>
+  </si>
+  <si>
+    <t>bottegaveneta</t>
+  </si>
+  <si>
+    <t>burberry</t>
+  </si>
+  <si>
+    <t>isseymiyake</t>
+  </si>
+  <si>
+    <t>stoneisland</t>
+  </si>
+  <si>
+    <t>mulberry</t>
+  </si>
+  <si>
+    <t>awakeny</t>
+  </si>
+  <si>
+    <t>hermes</t>
+  </si>
+  <si>
+    <t>ferragamo</t>
+  </si>
+  <si>
+    <t>prada</t>
+  </si>
+  <si>
+    <t>gucci</t>
+  </si>
+  <si>
+    <t>bally</t>
+  </si>
+  <si>
+    <t>reigningchamp</t>
+  </si>
+  <si>
+    <t>amiri</t>
+  </si>
+  <si>
+    <t>cherryla</t>
+  </si>
+  <si>
+    <t>balmain</t>
+  </si>
+  <si>
+    <t>clubmonaco</t>
+  </si>
+  <si>
+    <t>montblanc</t>
+  </si>
+  <si>
+    <t>poloralphlauren</t>
+  </si>
+  <si>
+    <t>sacai</t>
+  </si>
+  <si>
+    <t>toryburch</t>
+  </si>
+  <si>
+    <t>tumi</t>
+  </si>
+  <si>
+    <t>stereovinyls</t>
+  </si>
+  <si>
+    <t>adererror</t>
+  </si>
+  <si>
+    <t>veja</t>
+  </si>
+  <si>
+    <t>fredperry</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>topshop</t>
+  </si>
+  <si>
+    <t>nonnative</t>
   </si>
   <si>
     <t>mains</t>
   </si>
   <si>
-    <t>marceloburlon</t>
-  </si>
-  <si>
-    <t>mastermind</t>
-  </si>
-  <si>
-    <t>cavempt</t>
-  </si>
-  <si>
-    <t>zucca</t>
-  </si>
-  <si>
-    <t>newera</t>
-  </si>
-  <si>
-    <t>wtaps</t>
-  </si>
-  <si>
-    <t>umbro</t>
-  </si>
-  <si>
-    <t>aape</t>
-  </si>
-  <si>
-    <t>awakeny</t>
-  </si>
-  <si>
-    <t>aimeleondore</t>
-  </si>
-  <si>
-    <t>rickowens</t>
-  </si>
-  <si>
-    <t>thisisneverthat</t>
-  </si>
-  <si>
-    <t>richardson</t>
-  </si>
-  <si>
-    <t>nonnative</t>
-  </si>
-  <si>
-    <t>polarskateco</t>
-  </si>
-  <si>
-    <t>openingceremony</t>
-  </si>
-  <si>
-    <t>cutlerandgross</t>
-  </si>
-  <si>
-    <t>vans</t>
-  </si>
-  <si>
-    <t>gentlemonster</t>
-  </si>
-  <si>
-    <t>onitsukatiger</t>
-  </si>
-  <si>
-    <t>topshop</t>
-  </si>
-  <si>
-    <t>tomford</t>
-  </si>
-  <si>
-    <t>haveagoodtime</t>
-  </si>
-  <si>
-    <t>titleist</t>
-  </si>
-  <si>
-    <t>hconnect</t>
-  </si>
-  <si>
-    <t>thursdayisland</t>
-  </si>
-  <si>
-    <t>peaceminusone</t>
-  </si>
-  <si>
-    <t>hugoboss</t>
-  </si>
-  <si>
-    <t>humanmade</t>
-  </si>
-  <si>
-    <t>tartoptical</t>
-  </si>
-  <si>
-    <t>seventhheaven</t>
-  </si>
-  <si>
-    <t>lecoqsportif</t>
-  </si>
-  <si>
-    <t>nerdy</t>
-  </si>
-  <si>
-    <t>032c</t>
-  </si>
-  <si>
-    <t>bape</t>
-  </si>
-  <si>
-    <t>8seconds</t>
-  </si>
-  <si>
-    <t>99percentis</t>
-  </si>
-  <si>
-    <t>kuho</t>
-  </si>
-  <si>
-    <t>helmutlang</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>jilsander</t>
-  </si>
-  <si>
-    <t>fendi</t>
-  </si>
-  <si>
-    <t>placesplusfaces</t>
-  </si>
-  <si>
-    <t>fog</t>
-  </si>
-  <si>
-    <t>ami</t>
-  </si>
-  <si>
-    <t>michaelkors</t>
-  </si>
-  <si>
-    <t>gap</t>
-  </si>
-  <si>
-    <t>levis</t>
-  </si>
-  <si>
-    <t>munsingwear</t>
-  </si>
-  <si>
-    <t>undercover</t>
-  </si>
-  <si>
-    <t>whitemountaineering</t>
-  </si>
-  <si>
-    <t>charleskeith</t>
-  </si>
-  <si>
-    <t>Isabelmarant</t>
-  </si>
-  <si>
-    <t>mine</t>
-  </si>
-  <si>
-    <t>saintlaurent</t>
-  </si>
-  <si>
-    <t>discovery</t>
-  </si>
-  <si>
-    <t>alexanderwang</t>
-  </si>
-  <si>
-    <t>diesel</t>
-  </si>
-  <si>
-    <t>vivianwestwood</t>
-  </si>
-  <si>
-    <t>superga</t>
-  </si>
-  <si>
-    <t>suicoke</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t>barrel</t>
-  </si>
-  <si>
-    <t>tods</t>
-  </si>
-  <si>
-    <t>crocs</t>
-  </si>
-  <si>
-    <t>keds</t>
-  </si>
-  <si>
-    <t>juunj</t>
-  </si>
-  <si>
-    <t>marni</t>
-  </si>
-  <si>
-    <t>alexandermcqueen</t>
-  </si>
-  <si>
-    <t>theory</t>
-  </si>
-  <si>
-    <t>bally</t>
-  </si>
-  <si>
-    <t>montblanc</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>dolcegabbana</t>
-  </si>
-  <si>
-    <t>sandro</t>
-  </si>
-  <si>
-    <t>amiri</t>
-  </si>
-  <si>
-    <t>versace</t>
-  </si>
-  <si>
-    <t>rafsimons</t>
-  </si>
-  <si>
-    <t>balmain</t>
-  </si>
-  <si>
-    <t>paulsmith</t>
-  </si>
-  <si>
-    <t>dior</t>
-  </si>
-  <si>
-    <t>maisonmargiela</t>
-  </si>
-  <si>
-    <t>toryburch</t>
-  </si>
-  <si>
-    <t>maxmara</t>
-  </si>
-  <si>
-    <t>moscot</t>
-  </si>
-  <si>
-    <t>marcjacobs</t>
-  </si>
-  <si>
-    <t>ermenegildozegna</t>
-  </si>
-  <si>
-    <t>martinerose</t>
-  </si>
-  <si>
-    <t>veja</t>
-  </si>
-  <si>
-    <t>gmbh</t>
-  </si>
-  <si>
-    <t>columbiasportswear</t>
-  </si>
-  <si>
-    <t>rockymountainfeatherbed</t>
-  </si>
-  <si>
-    <t>helinox</t>
-  </si>
-  <si>
-    <t>muji</t>
-  </si>
-  <si>
-    <t>ugg</t>
-  </si>
-  <si>
-    <t>goldengoose</t>
-  </si>
-  <si>
-    <t>canadagoose</t>
-  </si>
-  <si>
-    <t>pleasuresclothing</t>
-  </si>
-  <si>
-    <t>sacai</t>
-  </si>
-  <si>
-    <t>dailypaper</t>
-  </si>
-  <si>
-    <t>snowpeak</t>
-  </si>
-  <si>
-    <t>taylormade</t>
-  </si>
-  <si>
-    <t>thenorthface</t>
-  </si>
-  <si>
-    <t>incase</t>
-  </si>
-  <si>
-    <t>blackyak</t>
-  </si>
-  <si>
-    <t>givenchy</t>
-  </si>
-  <si>
-    <t>monclear</t>
-  </si>
-  <si>
-    <t>stoneisland</t>
-  </si>
-  <si>
-    <t>chanel</t>
-  </si>
-  <si>
-    <t>gucci</t>
-  </si>
-  <si>
-    <t>balenciaga</t>
-  </si>
-  <si>
-    <t>burberry</t>
-  </si>
-  <si>
-    <t>louisvuitton</t>
-  </si>
-  <si>
-    <t>celine</t>
-  </si>
-  <si>
-    <t>dsquared2</t>
-  </si>
-  <si>
-    <t>bottegaveneta</t>
-  </si>
-  <si>
-    <t>prada</t>
-  </si>
-  <si>
-    <t>jimmychoo</t>
-  </si>
-  <si>
-    <t>mulberry</t>
-  </si>
-  <si>
-    <t>hermes</t>
-  </si>
-  <si>
-    <t>ferragamo</t>
-  </si>
-  <si>
-    <t>patagonia</t>
-  </si>
-  <si>
-    <t>undefeated</t>
-  </si>
-  <si>
-    <t>puma</t>
-  </si>
-  <si>
-    <t>uniqlo</t>
-  </si>
-  <si>
-    <t>salomon</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>mandarinaduck</t>
-  </si>
-  <si>
-    <t>acronym</t>
-  </si>
-  <si>
-    <t>maisonkitsune</t>
-  </si>
-  <si>
-    <t>mizuno</t>
-  </si>
-  <si>
-    <t>montbell</t>
-  </si>
-  <si>
-    <t>adidas</t>
-  </si>
-  <si>
-    <t>beanpole</t>
-  </si>
-  <si>
-    <t>lynn</t>
-  </si>
-  <si>
-    <t>thrasher</t>
-  </si>
-  <si>
-    <t>eytys</t>
-  </si>
-  <si>
-    <t>johnelliott</t>
-  </si>
-  <si>
-    <t>eider</t>
-  </si>
-  <si>
-    <t>huf</t>
-  </si>
-  <si>
-    <t>dynafit</t>
-  </si>
-  <si>
-    <t>drmartens</t>
-  </si>
-  <si>
-    <t>herschel</t>
-  </si>
-  <si>
-    <t>giordano</t>
-  </si>
-  <si>
-    <t>buckaroo</t>
-  </si>
-  <si>
-    <t>heritagefloss</t>
-  </si>
-  <si>
-    <t>henderscheme</t>
-  </si>
-  <si>
-    <t>gyakusou</t>
-  </si>
-  <si>
-    <t>champion</t>
-  </si>
-  <si>
-    <t>converse</t>
-  </si>
-  <si>
-    <t>lafuma</t>
-  </si>
-  <si>
-    <t>asics</t>
-  </si>
-  <si>
-    <t>nike</t>
-  </si>
-  <si>
-    <t>underarmour</t>
-  </si>
-  <si>
-    <t>obey</t>
-  </si>
-  <si>
-    <t>oioi</t>
-  </si>
-  <si>
-    <t>gregory</t>
-  </si>
-  <si>
-    <t>newbalance</t>
-  </si>
-  <si>
-    <t>fila</t>
-  </si>
-  <si>
-    <t>plasticisland</t>
-  </si>
-  <si>
-    <t>brooksrunning</t>
-  </si>
-  <si>
-    <t>porter</t>
-  </si>
-  <si>
-    <t>prospecs</t>
-  </si>
-  <si>
-    <t>eastpak</t>
-  </si>
-  <si>
-    <t>eastlogue</t>
-  </si>
-  <si>
-    <t>reebok</t>
-  </si>
-  <si>
-    <t>rokit</t>
-  </si>
-  <si>
-    <t>dickies</t>
-  </si>
-  <si>
-    <t>samsonite</t>
-  </si>
-  <si>
-    <t>descente</t>
-  </si>
-  <si>
-    <t>danner</t>
-  </si>
-  <si>
-    <t>sketchers</t>
-  </si>
-  <si>
-    <t>forever21</t>
-  </si>
-  <si>
-    <t>nationalgeography</t>
-  </si>
-  <si>
-    <t>ourlegacy</t>
-  </si>
-  <si>
-    <t>brixton</t>
-  </si>
-  <si>
-    <t>braindead</t>
-  </si>
-  <si>
-    <t>millet</t>
-  </si>
-  <si>
-    <t>hm</t>
-  </si>
-  <si>
-    <t>iamnotahumanbeing</t>
-  </si>
-  <si>
-    <t>jlindeberg</t>
-  </si>
-  <si>
-    <t>vivastudio</t>
-  </si>
-  <si>
-    <t>filson</t>
-  </si>
-  <si>
-    <t>vetement</t>
-  </si>
-  <si>
-    <t>beatselectronics</t>
-  </si>
-  <si>
-    <t>pearlygates</t>
-  </si>
-  <si>
-    <t>abecrombiefitch</t>
-  </si>
-  <si>
-    <t>tomsshoes</t>
-  </si>
-  <si>
-    <t>covernat</t>
-  </si>
-  <si>
-    <t>teva</t>
-  </si>
-  <si>
-    <t>topten</t>
-  </si>
-  <si>
-    <t>jeep</t>
-  </si>
-  <si>
-    <t>tumi</t>
-  </si>
-  <si>
-    <t>norseproject</t>
-  </si>
-  <si>
-    <t>arcteryx</t>
-  </si>
-  <si>
-    <t>carhartt</t>
-  </si>
-  <si>
-    <t>stussy</t>
-  </si>
-  <si>
-    <t>barbour</t>
-  </si>
-  <si>
-    <t>liful</t>
-  </si>
-  <si>
-    <t>everywear</t>
-  </si>
-  <si>
-    <t>oakley</t>
-  </si>
-  <si>
-    <t>jillstuart</t>
-  </si>
-  <si>
-    <t>supreme</t>
-  </si>
-  <si>
-    <t>visvim</t>
-  </si>
-  <si>
-    <t>aldo</t>
-  </si>
-  <si>
-    <t>cpcompany</t>
-  </si>
-  <si>
-    <t>chums</t>
-  </si>
-  <si>
-    <t>freitag</t>
-  </si>
-  <si>
-    <t>wilson</t>
-  </si>
-  <si>
-    <t>zara</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>kangol</t>
-  </si>
-  <si>
-    <t>heronpreston</t>
-  </si>
-  <si>
-    <t>jansport</t>
-  </si>
-  <si>
-    <t>donothingcongress</t>
-  </si>
-  <si>
-    <t>k2</t>
-  </si>
-  <si>
-    <t>offwhite</t>
-  </si>
-  <si>
-    <t>fredperry</t>
-  </si>
-  <si>
-    <t>adidasoriginal</t>
-  </si>
-  <si>
-    <t>palace</t>
-  </si>
-  <si>
-    <t>lap</t>
-  </si>
-  <si>
-    <t>commedesgarcons</t>
-  </si>
-  <si>
-    <t>coteciel</t>
-  </si>
-  <si>
-    <t>yeezy</t>
-  </si>
-  <si>
-    <t>clubmonaco</t>
-  </si>
-  <si>
-    <t>moschino</t>
-  </si>
-  <si>
-    <t>birkenstock</t>
-  </si>
-  <si>
-    <t>lacoste</t>
-  </si>
-  <si>
-    <t>kenzo</t>
-  </si>
-  <si>
-    <t>lanvin</t>
-  </si>
-  <si>
-    <t>benetton</t>
-  </si>
-  <si>
-    <t>palmangels</t>
-  </si>
-  <si>
-    <t>mhl</t>
-  </si>
-  <si>
-    <t>apc</t>
-  </si>
-  <si>
-    <t>medicomtoy</t>
-  </si>
-  <si>
-    <t>isseymiyake</t>
-  </si>
-  <si>
-    <t>pleatsplease</t>
-  </si>
-  <si>
-    <t>iise</t>
-  </si>
-  <si>
-    <t>valentino</t>
-  </si>
-  <si>
-    <t>poloralphlauren</t>
-  </si>
-  <si>
-    <t>maje</t>
-  </si>
-  <si>
-    <t>allsaints</t>
-  </si>
-  <si>
-    <t>rimowa</t>
-  </si>
-  <si>
-    <t>bershka</t>
-  </si>
-  <si>
-    <t>dkny</t>
-  </si>
-  <si>
-    <t>thombrowne</t>
-  </si>
-  <si>
-    <t>rayban</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>xlarge</t>
-  </si>
-  <si>
-    <t>yojiyamamoto</t>
-  </si>
-  <si>
-    <t>woolrich</t>
-  </si>
-  <si>
-    <t>charms</t>
-  </si>
-  <si>
-    <t>jwanderson</t>
-  </si>
-  <si>
-    <t>mlb</t>
-  </si>
-  <si>
-    <t>ovo</t>
-  </si>
-  <si>
-    <t>ragbone</t>
-  </si>
-  <si>
-    <t>readymade</t>
-  </si>
-  <si>
-    <t>noah</t>
-  </si>
-  <si>
-    <t>soup</t>
-  </si>
-  <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>cos</t>
-  </si>
-  <si>
-    <t>coach</t>
-  </si>
-  <si>
-    <t>stereovinyls</t>
-  </si>
-  <si>
-    <t>cherryla</t>
-  </si>
-  <si>
     <t>fillingpieces</t>
-  </si>
-  <si>
-    <t>kapital</t>
-  </si>
-  <si>
-    <t>midnightstudios</t>
-  </si>
-  <si>
-    <t>girlsdontcry</t>
-  </si>
-  <si>
-    <t>studioseven</t>
-  </si>
-  <si>
-    <t>urutokyo</t>
-  </si>
-  <si>
-    <t>reigningchamp</t>
-  </si>
-  <si>
-    <t>spyder</t>
-  </si>
-  <si>
-    <t>n21</t>
-  </si>
-  <si>
-    <t>adererror</t>
-  </si>
-  <si>
-    <t>stellamccartney</t>
-  </si>
-  <si>
-    <t>acnestudios</t>
-  </si>
-  <si>
-    <t>tommyhilfiger</t>
-  </si>
-  <si>
-    <t>1017alyx9sm</t>
-  </si>
-  <si>
-    <t>gosharubchinskiy</t>
-  </si>
-  <si>
-    <t>calvinklein</t>
-  </si>
-  <si>
-    <t>beyondcloset</t>
-  </si>
-  <si>
-    <t>ambush</t>
-  </si>
-  <si>
-    <t>mcm</t>
-  </si>
-  <si>
-    <t>plac</t>
-  </si>
-  <si>
-    <t>miumiu</t>
-  </si>
-  <si>
-    <t>nohant</t>
-  </si>
-  <si>
-    <t>suecommabonnie</t>
-  </si>
-  <si>
-    <t>mindbridge</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1453,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1464,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1475,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1486,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>127</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>130</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>133</v>
       </c>
       <c r="C133">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>134</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>135</v>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>136</v>
       </c>
       <c r="C136">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>137</v>
       </c>
       <c r="C137">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>138</v>
       </c>
       <c r="C138">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>139</v>
       </c>
       <c r="C139">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>142</v>
       </c>
       <c r="C142">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>143</v>
       </c>
       <c r="C143">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>146</v>
       </c>
       <c r="C146">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>148</v>
       </c>
       <c r="C148">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>149</v>
       </c>
       <c r="C149">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>150</v>
       </c>
       <c r="C150">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>151</v>
       </c>
       <c r="C151">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>152</v>
       </c>
       <c r="C152">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>153</v>
       </c>
       <c r="C153">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>154</v>
       </c>
       <c r="C154">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>155</v>
       </c>
       <c r="C155">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>158</v>
       </c>
       <c r="C158">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>159</v>
       </c>
       <c r="C159">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>160</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>161</v>
       </c>
       <c r="C161">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>162</v>
       </c>
       <c r="C162">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>163</v>
       </c>
       <c r="C163">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>164</v>
       </c>
       <c r="C164">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>165</v>
       </c>
       <c r="C165">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>166</v>
       </c>
       <c r="C166">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>167</v>
       </c>
       <c r="C167">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>168</v>
       </c>
       <c r="C168">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>169</v>
       </c>
       <c r="C169">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>170</v>
       </c>
       <c r="C170">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>171</v>
       </c>
       <c r="C171">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>172</v>
       </c>
       <c r="C172">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>173</v>
       </c>
       <c r="C173">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>174</v>
       </c>
       <c r="C174">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>175</v>
       </c>
       <c r="C175">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>176</v>
       </c>
       <c r="C176">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>177</v>
       </c>
       <c r="C177">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>178</v>
       </c>
       <c r="C178">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>179</v>
       </c>
       <c r="C179">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>180</v>
       </c>
       <c r="C180">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>181</v>
       </c>
       <c r="C181">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>182</v>
       </c>
       <c r="C182">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>183</v>
       </c>
       <c r="C183">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>184</v>
       </c>
       <c r="C184">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>185</v>
       </c>
       <c r="C185">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>186</v>
       </c>
       <c r="C186">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>187</v>
       </c>
       <c r="C187">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>188</v>
       </c>
       <c r="C188">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>189</v>
       </c>
       <c r="C189">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>190</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>191</v>
       </c>
       <c r="C191">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>192</v>
       </c>
       <c r="C192">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>193</v>
       </c>
       <c r="C193">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>194</v>
       </c>
       <c r="C194">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>195</v>
       </c>
       <c r="C195">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>196</v>
       </c>
       <c r="C196">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>197</v>
       </c>
       <c r="C197">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>198</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3499,7 +3499,7 @@
         <v>199</v>
       </c>
       <c r="C199">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3510,7 +3510,7 @@
         <v>200</v>
       </c>
       <c r="C200">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3521,7 +3521,7 @@
         <v>201</v>
       </c>
       <c r="C201">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3532,7 +3532,7 @@
         <v>202</v>
       </c>
       <c r="C202">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3543,7 +3543,7 @@
         <v>203</v>
       </c>
       <c r="C203">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3554,7 +3554,7 @@
         <v>204</v>
       </c>
       <c r="C204">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>205</v>
       </c>
       <c r="C205">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3576,7 +3576,7 @@
         <v>206</v>
       </c>
       <c r="C206">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3587,7 +3587,7 @@
         <v>207</v>
       </c>
       <c r="C207">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3598,7 +3598,7 @@
         <v>208</v>
       </c>
       <c r="C208">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3609,7 +3609,7 @@
         <v>209</v>
       </c>
       <c r="C209">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3620,7 +3620,7 @@
         <v>210</v>
       </c>
       <c r="C210">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3631,7 +3631,7 @@
         <v>211</v>
       </c>
       <c r="C211">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3642,7 +3642,7 @@
         <v>212</v>
       </c>
       <c r="C212">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>213</v>
       </c>
       <c r="C213">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3664,7 +3664,7 @@
         <v>214</v>
       </c>
       <c r="C214">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>215</v>
       </c>
       <c r="C215">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3686,7 +3686,7 @@
         <v>216</v>
       </c>
       <c r="C216">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3697,7 +3697,7 @@
         <v>217</v>
       </c>
       <c r="C217">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3708,7 +3708,7 @@
         <v>218</v>
       </c>
       <c r="C218">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3719,7 +3719,7 @@
         <v>219</v>
       </c>
       <c r="C219">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3730,7 +3730,7 @@
         <v>220</v>
       </c>
       <c r="C220">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3741,7 +3741,7 @@
         <v>221</v>
       </c>
       <c r="C221">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3752,7 +3752,7 @@
         <v>222</v>
       </c>
       <c r="C222">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>223</v>
       </c>
       <c r="C223">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3774,7 +3774,7 @@
         <v>224</v>
       </c>
       <c r="C224">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>225</v>
       </c>
       <c r="C225">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3796,7 +3796,7 @@
         <v>226</v>
       </c>
       <c r="C226">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>227</v>
       </c>
       <c r="C227">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3818,7 +3818,7 @@
         <v>228</v>
       </c>
       <c r="C228">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3829,7 +3829,7 @@
         <v>229</v>
       </c>
       <c r="C229">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3840,7 +3840,7 @@
         <v>230</v>
       </c>
       <c r="C230">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3851,7 +3851,7 @@
         <v>231</v>
       </c>
       <c r="C231">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3862,7 +3862,7 @@
         <v>232</v>
       </c>
       <c r="C232">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>233</v>
       </c>
       <c r="C233">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>234</v>
       </c>
       <c r="C234">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3895,7 +3895,7 @@
         <v>235</v>
       </c>
       <c r="C235">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3906,7 +3906,7 @@
         <v>236</v>
       </c>
       <c r="C236">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3917,7 +3917,7 @@
         <v>237</v>
       </c>
       <c r="C237">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3928,7 +3928,7 @@
         <v>238</v>
       </c>
       <c r="C238">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3939,7 +3939,7 @@
         <v>239</v>
       </c>
       <c r="C239">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3950,7 +3950,7 @@
         <v>240</v>
       </c>
       <c r="C240">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>241</v>
       </c>
       <c r="C241">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>242</v>
       </c>
       <c r="C242">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3983,7 +3983,7 @@
         <v>243</v>
       </c>
       <c r="C243">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>244</v>
       </c>
       <c r="C244">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4005,7 +4005,7 @@
         <v>245</v>
       </c>
       <c r="C245">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4016,7 +4016,7 @@
         <v>246</v>
       </c>
       <c r="C246">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4027,7 +4027,7 @@
         <v>247</v>
       </c>
       <c r="C247">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4038,7 +4038,7 @@
         <v>248</v>
       </c>
       <c r="C248">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4049,7 +4049,7 @@
         <v>249</v>
       </c>
       <c r="C249">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4060,7 +4060,7 @@
         <v>250</v>
       </c>
       <c r="C250">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4071,7 +4071,7 @@
         <v>251</v>
       </c>
       <c r="C251">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>252</v>
       </c>
       <c r="C252">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4093,7 +4093,7 @@
         <v>253</v>
       </c>
       <c r="C253">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>254</v>
       </c>
       <c r="C254">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4115,7 +4115,7 @@
         <v>255</v>
       </c>
       <c r="C255">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4126,7 +4126,7 @@
         <v>256</v>
       </c>
       <c r="C256">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4137,7 +4137,7 @@
         <v>257</v>
       </c>
       <c r="C257">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4148,7 +4148,7 @@
         <v>258</v>
       </c>
       <c r="C258">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4159,7 +4159,7 @@
         <v>259</v>
       </c>
       <c r="C259">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4170,7 +4170,7 @@
         <v>260</v>
       </c>
       <c r="C260">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4181,7 +4181,7 @@
         <v>261</v>
       </c>
       <c r="C261">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4192,7 +4192,7 @@
         <v>262</v>
       </c>
       <c r="C262">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4203,7 +4203,7 @@
         <v>263</v>
       </c>
       <c r="C263">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>264</v>
       </c>
       <c r="C264">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4225,7 +4225,7 @@
         <v>265</v>
       </c>
       <c r="C265">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4236,7 +4236,7 @@
         <v>266</v>
       </c>
       <c r="C266">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4247,7 +4247,7 @@
         <v>267</v>
       </c>
       <c r="C267">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4258,7 +4258,7 @@
         <v>268</v>
       </c>
       <c r="C268">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4269,7 +4269,7 @@
         <v>269</v>
       </c>
       <c r="C269">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4280,7 +4280,7 @@
         <v>270</v>
       </c>
       <c r="C270">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4291,7 +4291,7 @@
         <v>271</v>
       </c>
       <c r="C271">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4302,7 +4302,7 @@
         <v>272</v>
       </c>
       <c r="C272">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>273</v>
       </c>
       <c r="C273">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4324,7 +4324,7 @@
         <v>274</v>
       </c>
       <c r="C274">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4335,7 +4335,7 @@
         <v>275</v>
       </c>
       <c r="C275">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4346,7 +4346,7 @@
         <v>276</v>
       </c>
       <c r="C276">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4357,7 +4357,7 @@
         <v>277</v>
       </c>
       <c r="C277">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4368,7 +4368,7 @@
         <v>278</v>
       </c>
       <c r="C278">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4379,7 +4379,7 @@
         <v>279</v>
       </c>
       <c r="C279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4390,7 +4390,7 @@
         <v>280</v>
       </c>
       <c r="C280">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4401,7 +4401,7 @@
         <v>281</v>
       </c>
       <c r="C281">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4412,7 +4412,7 @@
         <v>282</v>
       </c>
       <c r="C282">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4423,7 +4423,7 @@
         <v>283</v>
       </c>
       <c r="C283">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4434,7 +4434,7 @@
         <v>284</v>
       </c>
       <c r="C284">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4445,7 +4445,7 @@
         <v>285</v>
       </c>
       <c r="C285">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4456,7 +4456,7 @@
         <v>286</v>
       </c>
       <c r="C286">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4467,7 +4467,7 @@
         <v>287</v>
       </c>
       <c r="C287">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4478,7 +4478,7 @@
         <v>288</v>
       </c>
       <c r="C288">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4489,7 +4489,7 @@
         <v>289</v>
       </c>
       <c r="C289">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4500,7 +4500,7 @@
         <v>290</v>
       </c>
       <c r="C290">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4511,7 +4511,7 @@
         <v>291</v>
       </c>
       <c r="C291">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>292</v>
       </c>
       <c r="C292">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>293</v>
       </c>
       <c r="C293">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4544,7 +4544,7 @@
         <v>294</v>
       </c>
       <c r="C294">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4555,7 +4555,7 @@
         <v>295</v>
       </c>
       <c r="C295">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4566,7 +4566,7 @@
         <v>296</v>
       </c>
       <c r="C296">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4577,7 +4577,7 @@
         <v>297</v>
       </c>
       <c r="C297">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4588,7 +4588,7 @@
         <v>298</v>
       </c>
       <c r="C298">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4599,7 +4599,7 @@
         <v>299</v>
       </c>
       <c r="C299">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4610,7 +4610,7 @@
         <v>300</v>
       </c>
       <c r="C300">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4621,7 +4621,7 @@
         <v>301</v>
       </c>
       <c r="C301">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4632,7 +4632,7 @@
         <v>302</v>
       </c>
       <c r="C302">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>303</v>
       </c>
       <c r="C303">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4654,7 +4654,7 @@
         <v>304</v>
       </c>
       <c r="C304">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4665,7 +4665,7 @@
         <v>305</v>
       </c>
       <c r="C305">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4676,7 +4676,7 @@
         <v>306</v>
       </c>
       <c r="C306">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4687,7 +4687,7 @@
         <v>307</v>
       </c>
       <c r="C307">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4698,7 +4698,7 @@
         <v>308</v>
       </c>
       <c r="C308">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4709,7 +4709,7 @@
         <v>309</v>
       </c>
       <c r="C309">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4720,7 +4720,7 @@
         <v>310</v>
       </c>
       <c r="C310">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4731,7 +4731,7 @@
         <v>311</v>
       </c>
       <c r="C311">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>312</v>
       </c>
       <c r="C312">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/clustered.xlsx
+++ b/clustered.xlsx
@@ -22,937 +22,937 @@
     <t>cluster</t>
   </si>
   <si>
+    <t>tartoptical</t>
+  </si>
+  <si>
+    <t>gregory</t>
+  </si>
+  <si>
+    <t>crocs</t>
+  </si>
+  <si>
+    <t>clubmonaco</t>
+  </si>
+  <si>
+    <t>charms</t>
+  </si>
+  <si>
+    <t>norseproject</t>
+  </si>
+  <si>
+    <t>ugg</t>
+  </si>
+  <si>
+    <t>benetton</t>
+  </si>
+  <si>
+    <t>balenciaga</t>
+  </si>
+  <si>
+    <t>alexanderwang</t>
+  </si>
+  <si>
+    <t>vetement</t>
+  </si>
+  <si>
+    <t>Isabelmarant</t>
+  </si>
+  <si>
+    <t>adidasoriginal</t>
+  </si>
+  <si>
+    <t>mastermind</t>
+  </si>
+  <si>
+    <t>ovo</t>
+  </si>
+  <si>
+    <t>99percentis</t>
+  </si>
+  <si>
+    <t>champion</t>
+  </si>
+  <si>
+    <t>fog</t>
+  </si>
+  <si>
+    <t>umbro</t>
+  </si>
+  <si>
+    <t>kapital</t>
+  </si>
+  <si>
+    <t>beatselectronics</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>seventhheaven</t>
+  </si>
+  <si>
+    <t>jlindeberg</t>
+  </si>
+  <si>
+    <t>openingceremony</t>
+  </si>
+  <si>
+    <t>antisocialsocialclub</t>
+  </si>
+  <si>
+    <t>ambush</t>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>lacoste</t>
+  </si>
+  <si>
+    <t>forever21</t>
+  </si>
+  <si>
+    <t>nohant</t>
+  </si>
+  <si>
+    <t>topten</t>
+  </si>
+  <si>
+    <t>ragbone</t>
+  </si>
+  <si>
+    <t>8seconds</t>
+  </si>
+  <si>
+    <t>eastpak</t>
+  </si>
+  <si>
+    <t>montbell</t>
+  </si>
+  <si>
+    <t>birkenstock</t>
+  </si>
+  <si>
+    <t>beyondcloset</t>
+  </si>
+  <si>
+    <t>cherryla</t>
+  </si>
+  <si>
+    <t>lmc</t>
+  </si>
+  <si>
+    <t>drmartens</t>
+  </si>
+  <si>
+    <t>oioi</t>
+  </si>
+  <si>
+    <t>uniqlo</t>
+  </si>
+  <si>
+    <t>amiri</t>
+  </si>
+  <si>
+    <t>hconnect</t>
+  </si>
+  <si>
+    <t>stereovinyls</t>
+  </si>
+  <si>
+    <t>helmutlang</t>
+  </si>
+  <si>
+    <t>billylosangeles</t>
+  </si>
+  <si>
+    <t>titleist</t>
+  </si>
+  <si>
+    <t>coteciel</t>
+  </si>
+  <si>
+    <t>urutokyo</t>
+  </si>
+  <si>
+    <t>peaceminusone</t>
+  </si>
+  <si>
+    <t>hugoboss</t>
+  </si>
+  <si>
+    <t>reigningchamp</t>
+  </si>
+  <si>
+    <t>yojiyamamoto</t>
+  </si>
+  <si>
+    <t>bally</t>
+  </si>
+  <si>
+    <t>everywear</t>
+  </si>
+  <si>
+    <t>columbiasportswear</t>
+  </si>
+  <si>
+    <t>rokit</t>
+  </si>
+  <si>
+    <t>howlin</t>
+  </si>
+  <si>
+    <t>cpcompany</t>
+  </si>
+  <si>
+    <t>mindbridge</t>
+  </si>
+  <si>
+    <t>oakley</t>
+  </si>
+  <si>
+    <t>spyder</t>
+  </si>
+  <si>
+    <t>huf</t>
+  </si>
+  <si>
+    <t>porter</t>
+  </si>
+  <si>
+    <t>cavempt</t>
+  </si>
+  <si>
+    <t>placesplusfaces</t>
+  </si>
+  <si>
+    <t>keen</t>
+  </si>
+  <si>
+    <t>dynafit</t>
+  </si>
+  <si>
+    <t>mizuno</t>
+  </si>
+  <si>
+    <t>needles</t>
+  </si>
+  <si>
+    <t>lecoqsportif</t>
+  </si>
+  <si>
+    <t>mains</t>
+  </si>
+  <si>
+    <t>fila</t>
+  </si>
+  <si>
+    <t>jeep</t>
+  </si>
+  <si>
+    <t>eytys</t>
+  </si>
+  <si>
+    <t>gramicchi</t>
+  </si>
+  <si>
+    <t>ourlegacy</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>filson</t>
+  </si>
+  <si>
+    <t>zara</t>
+  </si>
+  <si>
+    <t>eider</t>
+  </si>
+  <si>
+    <t>aecawhite</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>aldo</t>
+  </si>
+  <si>
+    <t>adererror</t>
+  </si>
+  <si>
+    <t>apc</t>
+  </si>
+  <si>
+    <t>vans</t>
+  </si>
+  <si>
+    <t>whitemountaineering</t>
+  </si>
+  <si>
+    <t>nerdy</t>
+  </si>
+  <si>
+    <t>undercover</t>
+  </si>
+  <si>
+    <t>wtaps</t>
+  </si>
+  <si>
+    <t>discovery</t>
+  </si>
+  <si>
+    <t>medicomtoy</t>
+  </si>
+  <si>
+    <t>noah</t>
+  </si>
+  <si>
+    <t>carhartt</t>
+  </si>
+  <si>
+    <t>tomsshoes</t>
+  </si>
+  <si>
+    <t>mhl</t>
+  </si>
+  <si>
+    <t>daks</t>
+  </si>
+  <si>
+    <t>thursdayisland</t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>thisisneverthat</t>
+  </si>
+  <si>
+    <t>obey</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>mandarinaduck</t>
+  </si>
+  <si>
+    <t>danner</t>
+  </si>
+  <si>
+    <t>dickies</t>
+  </si>
+  <si>
+    <t>ami</t>
+  </si>
+  <si>
+    <t>allsaints</t>
+  </si>
+  <si>
+    <t>nepa</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>vivastudio</t>
+  </si>
+  <si>
+    <t>jansport</t>
+  </si>
+  <si>
+    <t>alphaindustry</t>
+  </si>
+  <si>
+    <t>mlb</t>
+  </si>
+  <si>
+    <t>tomboy</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>fredperry</t>
+  </si>
+  <si>
+    <t>superga</t>
+  </si>
+  <si>
+    <t>giordano</t>
+  </si>
+  <si>
+    <t>suicoke</t>
+  </si>
+  <si>
+    <t>buckaroo</t>
+  </si>
+  <si>
+    <t>soup</t>
+  </si>
+  <si>
+    <t>lap</t>
+  </si>
+  <si>
+    <t>kangol</t>
+  </si>
+  <si>
+    <t>bershka</t>
+  </si>
+  <si>
+    <t>covernat</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>hazzys</t>
+  </si>
+  <si>
+    <t>pleatsplease</t>
+  </si>
+  <si>
+    <t>martinerose</t>
+  </si>
+  <si>
+    <t>newbalance</t>
+  </si>
+  <si>
+    <t>palmangels</t>
+  </si>
+  <si>
+    <t>rafsimons</t>
+  </si>
+  <si>
+    <t>offwhite</t>
+  </si>
+  <si>
+    <t>jwanderson</t>
+  </si>
+  <si>
+    <t>zucca</t>
+  </si>
+  <si>
+    <t>calvinklein</t>
+  </si>
+  <si>
+    <t>eastlogue</t>
+  </si>
+  <si>
+    <t>dsquared2</t>
+  </si>
+  <si>
+    <t>stoneisland</t>
+  </si>
+  <si>
+    <t>gosharubchinskiy</t>
+  </si>
+  <si>
+    <t>acnestudios</t>
+  </si>
+  <si>
+    <t>barbour</t>
+  </si>
+  <si>
+    <t>cutlerandgross</t>
+  </si>
+  <si>
+    <t>commedesgarcons</t>
+  </si>
+  <si>
+    <t>tumi</t>
+  </si>
+  <si>
+    <t>dior</t>
+  </si>
+  <si>
+    <t>lanvin</t>
+  </si>
+  <si>
+    <t>bottegaveneta</t>
+  </si>
+  <si>
+    <t>tods</t>
+  </si>
+  <si>
+    <t>burberry</t>
+  </si>
+  <si>
+    <t>ermenegildozegna</t>
+  </si>
+  <si>
+    <t>fendi</t>
+  </si>
+  <si>
+    <t>dkny</t>
+  </si>
+  <si>
+    <t>louisvuitton</t>
+  </si>
+  <si>
+    <t>n21</t>
+  </si>
+  <si>
+    <t>chanel</t>
+  </si>
+  <si>
+    <t>awakeny</t>
+  </si>
+  <si>
+    <t>gentlemonster</t>
+  </si>
+  <si>
+    <t>versace</t>
+  </si>
+  <si>
+    <t>alexandermcqueen</t>
+  </si>
+  <si>
+    <t>gucci</t>
+  </si>
+  <si>
+    <t>hermes</t>
+  </si>
+  <si>
+    <t>heronpreston</t>
+  </si>
+  <si>
+    <t>prada</t>
+  </si>
+  <si>
+    <t>ferragamo</t>
+  </si>
+  <si>
+    <t>balmain</t>
+  </si>
+  <si>
+    <t>millet</t>
+  </si>
+  <si>
+    <t>abecrombiefitch</t>
+  </si>
+  <si>
+    <t>monclear</t>
+  </si>
+  <si>
+    <t>montblanc</t>
+  </si>
+  <si>
+    <t>nationalgeography</t>
+  </si>
+  <si>
+    <t>dolcegabbana</t>
+  </si>
+  <si>
+    <t>tomford</t>
+  </si>
+  <si>
+    <t>rimowa</t>
+  </si>
+  <si>
+    <t>poloralphlauren</t>
+  </si>
+  <si>
+    <t>saintlaurent</t>
+  </si>
+  <si>
+    <t>gmbh</t>
+  </si>
+  <si>
+    <t>canadagoose</t>
+  </si>
+  <si>
+    <t>kolonsport</t>
+  </si>
+  <si>
+    <t>givenchy</t>
+  </si>
+  <si>
+    <t>iise</t>
+  </si>
+  <si>
+    <t>moscot</t>
+  </si>
+  <si>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>palace</t>
+  </si>
+  <si>
+    <t>underarmour</t>
+  </si>
+  <si>
+    <t>snowpeak</t>
+  </si>
+  <si>
+    <t>thenorthface</t>
+  </si>
+  <si>
+    <t>nike</t>
+  </si>
+  <si>
+    <t>yeezy</t>
+  </si>
+  <si>
+    <t>rickowens</t>
+  </si>
+  <si>
+    <t>rayban</t>
+  </si>
+  <si>
     <t>032c</t>
   </si>
   <si>
-    <t>gosharubchinskiy</t>
+    <t>juunj</t>
   </si>
   <si>
     <t>marceloburlon</t>
   </si>
   <si>
-    <t>acnestudios</t>
-  </si>
-  <si>
-    <t>peaceminusone</t>
-  </si>
-  <si>
-    <t>tomford</t>
+    <t>henderscheme</t>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t>blackyak</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>1017alyx9sm</t>
+  </si>
+  <si>
+    <t>miumiu</t>
+  </si>
+  <si>
+    <t>freitag</t>
+  </si>
+  <si>
+    <t>samsonite</t>
+  </si>
+  <si>
+    <t>grds</t>
+  </si>
+  <si>
+    <t>kenzo</t>
+  </si>
+  <si>
+    <t>levis</t>
+  </si>
+  <si>
+    <t>pearlygates</t>
+  </si>
+  <si>
+    <t>incase</t>
+  </si>
+  <si>
+    <t>stellamccartney</t>
+  </si>
+  <si>
+    <t>paulsmith</t>
+  </si>
+  <si>
+    <t>kuho</t>
+  </si>
+  <si>
+    <t>jilsander</t>
+  </si>
+  <si>
+    <t>charleskeith</t>
+  </si>
+  <si>
+    <t>acoldwall</t>
+  </si>
+  <si>
+    <t>moschino</t>
+  </si>
+  <si>
+    <t>muji</t>
+  </si>
+  <si>
+    <t>maisonmargiela</t>
+  </si>
+  <si>
+    <t>dailypaper</t>
+  </si>
+  <si>
+    <t>wilson</t>
+  </si>
+  <si>
+    <t>sacai</t>
   </si>
   <si>
     <t>richardson</t>
   </si>
   <si>
+    <t>aape</t>
+  </si>
+  <si>
+    <t>taylormade</t>
+  </si>
+  <si>
+    <t>munsingwear</t>
+  </si>
+  <si>
+    <t>lynn</t>
+  </si>
+  <si>
+    <t>herschel</t>
+  </si>
+  <si>
+    <t>stussy</t>
+  </si>
+  <si>
+    <t>studioseven</t>
+  </si>
+  <si>
+    <t>donothingcongress</t>
+  </si>
+  <si>
+    <t>gyakusou</t>
+  </si>
+  <si>
+    <t>thombrowne</t>
+  </si>
+  <si>
+    <t>chums</t>
+  </si>
+  <si>
+    <t>helinox</t>
+  </si>
+  <si>
+    <t>c2h4</t>
+  </si>
+  <si>
+    <t>brooksrunning</t>
+  </si>
+  <si>
+    <t>brixton</t>
+  </si>
+  <si>
+    <t>heritagefloss</t>
+  </si>
+  <si>
+    <t>kith</t>
+  </si>
+  <si>
+    <t>maisonkitsune</t>
+  </si>
+  <si>
     <t>rockymountainfeatherbed</t>
   </si>
   <si>
-    <t>beyondcloset</t>
+    <t>girlsdontcry</t>
+  </si>
+  <si>
+    <t>hoodbyair</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>woolrich</t>
+  </si>
+  <si>
+    <t>newera</t>
+  </si>
+  <si>
+    <t>mcm</t>
+  </si>
+  <si>
+    <t>visvim</t>
+  </si>
+  <si>
+    <t>undefeated</t>
+  </si>
+  <si>
+    <t>arcteryx</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>readymade</t>
   </si>
   <si>
     <t>beanpole</t>
   </si>
   <si>
+    <t>humanmade</t>
+  </si>
+  <si>
+    <t>patagonia</t>
+  </si>
+  <si>
+    <t>bape</t>
+  </si>
+  <si>
+    <t>veja</t>
+  </si>
+  <si>
+    <t>marni</t>
+  </si>
+  <si>
+    <t>maje</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>plasticisland</t>
+  </si>
+  <si>
+    <t>teva</t>
+  </si>
+  <si>
+    <t>suecommabonnie</t>
+  </si>
+  <si>
+    <t>hm</t>
+  </si>
+  <si>
+    <t>sandro</t>
+  </si>
+  <si>
+    <t>sketchers</t>
+  </si>
+  <si>
+    <t>goldengoose</t>
+  </si>
+  <si>
+    <t>pleasuresclothing</t>
+  </si>
+  <si>
+    <t>michaelkors</t>
+  </si>
+  <si>
+    <t>jimmychoo</t>
+  </si>
+  <si>
+    <t>vivianwestwood</t>
+  </si>
+  <si>
+    <t>jillstuart</t>
+  </si>
+  <si>
+    <t>isseymiyake</t>
+  </si>
+  <si>
+    <t>valentino</t>
+  </si>
+  <si>
+    <t>toryburch</t>
+  </si>
+  <si>
+    <t>celine</t>
+  </si>
+  <si>
+    <t>tommyhilfiger</t>
+  </si>
+  <si>
+    <t>maxmara</t>
+  </si>
+  <si>
+    <t>mulberry</t>
+  </si>
+  <si>
+    <t>marcjacobs</t>
+  </si>
+  <si>
+    <t>neighborhood</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>polarskateco</t>
+  </si>
+  <si>
+    <t>xlarge</t>
+  </si>
+  <si>
+    <t>midnightstudios</t>
+  </si>
+  <si>
+    <t>johnelliott</t>
+  </si>
+  <si>
+    <t>gstarraw</t>
+  </si>
+  <si>
+    <t>descente</t>
+  </si>
+  <si>
     <t>keds</t>
   </si>
   <si>
-    <t>nohant</t>
-  </si>
-  <si>
-    <t>charms</t>
-  </si>
-  <si>
-    <t>adidasoriginal</t>
-  </si>
-  <si>
-    <t>1017alyx9sm</t>
+    <t>prospecs</t>
+  </si>
+  <si>
+    <t>aimeleondore</t>
+  </si>
+  <si>
+    <t>haveagoodtime</t>
+  </si>
+  <si>
+    <t>liful</t>
+  </si>
+  <si>
+    <t>thrasher</t>
+  </si>
+  <si>
+    <t>custommellow</t>
+  </si>
+  <si>
+    <t>plac</t>
+  </si>
+  <si>
+    <t>iamnotahumanbeing</t>
+  </si>
+  <si>
+    <t>reebok</t>
+  </si>
+  <si>
+    <t>onitsukatiger</t>
+  </si>
+  <si>
+    <t>critic</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>salomon</t>
+  </si>
+  <si>
+    <t>lafuma</t>
+  </si>
+  <si>
+    <t>converse</t>
+  </si>
+  <si>
+    <t>fillingpieces</t>
+  </si>
+  <si>
+    <t>topshop</t>
+  </si>
+  <si>
+    <t>nonnative</t>
+  </si>
+  <si>
+    <t>asics</t>
   </si>
   <si>
     <t>braindead</t>
-  </si>
-  <si>
-    <t>hazzys</t>
-  </si>
-  <si>
-    <t>yojiyamamoto</t>
-  </si>
-  <si>
-    <t>helmutlang</t>
-  </si>
-  <si>
-    <t>beatselectronics</t>
-  </si>
-  <si>
-    <t>xlarge</t>
-  </si>
-  <si>
-    <t>aape</t>
-  </si>
-  <si>
-    <t>kenzo</t>
-  </si>
-  <si>
-    <t>maisonkitsune</t>
-  </si>
-  <si>
-    <t>mandarinaduck</t>
-  </si>
-  <si>
-    <t>mastermind</t>
-  </si>
-  <si>
-    <t>medicomtoy</t>
-  </si>
-  <si>
-    <t>noah</t>
-  </si>
-  <si>
-    <t>ragbone</t>
-  </si>
-  <si>
-    <t>visvim</t>
-  </si>
-  <si>
-    <t>offwhite</t>
-  </si>
-  <si>
-    <t>tommyhilfiger</t>
-  </si>
-  <si>
-    <t>columbiasportswear</t>
-  </si>
-  <si>
-    <t>dailypaper</t>
-  </si>
-  <si>
-    <t>everywear</t>
-  </si>
-  <si>
-    <t>gentlemonster</t>
-  </si>
-  <si>
-    <t>spyder</t>
-  </si>
-  <si>
-    <t>gramicchi</t>
-  </si>
-  <si>
-    <t>helinox</t>
-  </si>
-  <si>
-    <t>palmangels</t>
-  </si>
-  <si>
-    <t>wilson</t>
-  </si>
-  <si>
-    <t>howlin</t>
-  </si>
-  <si>
-    <t>huf</t>
-  </si>
-  <si>
-    <t>montbell</t>
-  </si>
-  <si>
-    <t>samsonite</t>
-  </si>
-  <si>
-    <t>lap</t>
-  </si>
-  <si>
-    <t>levis</t>
-  </si>
-  <si>
-    <t>patagonia</t>
-  </si>
-  <si>
-    <t>lacoste</t>
-  </si>
-  <si>
-    <t>zucca</t>
-  </si>
-  <si>
-    <t>8seconds</t>
-  </si>
-  <si>
-    <t>aldo</t>
-  </si>
-  <si>
-    <t>arcteryx</t>
-  </si>
-  <si>
-    <t>brooksrunning</t>
-  </si>
-  <si>
-    <t>forever21</t>
-  </si>
-  <si>
-    <t>eastlogue</t>
-  </si>
-  <si>
-    <t>seventhheaven</t>
-  </si>
-  <si>
-    <t>reebok</t>
-  </si>
-  <si>
-    <t>sketchers</t>
-  </si>
-  <si>
-    <t>gyakusou</t>
-  </si>
-  <si>
-    <t>allsaints</t>
-  </si>
-  <si>
-    <t>acronym</t>
-  </si>
-  <si>
-    <t>adidas</t>
-  </si>
-  <si>
-    <t>cos</t>
-  </si>
-  <si>
-    <t>alphaindustry</t>
-  </si>
-  <si>
-    <t>martinerose</t>
-  </si>
-  <si>
-    <t>onitsukatiger</t>
-  </si>
-  <si>
-    <t>whitemountaineering</t>
-  </si>
-  <si>
-    <t>yeezy</t>
-  </si>
-  <si>
-    <t>nike</t>
-  </si>
-  <si>
-    <t>champion</t>
-  </si>
-  <si>
-    <t>nerdy</t>
-  </si>
-  <si>
-    <t>girlsdontcry</t>
-  </si>
-  <si>
-    <t>mcm</t>
-  </si>
-  <si>
-    <t>rafsimons</t>
-  </si>
-  <si>
-    <t>polarskateco</t>
-  </si>
-  <si>
-    <t>openingceremony</t>
-  </si>
-  <si>
-    <t>jwanderson</t>
-  </si>
-  <si>
-    <t>ovo</t>
-  </si>
-  <si>
-    <t>cutlerandgross</t>
-  </si>
-  <si>
-    <t>custommellow</t>
-  </si>
-  <si>
-    <t>kith</t>
-  </si>
-  <si>
-    <t>suecommabonnie</t>
-  </si>
-  <si>
-    <t>juunj</t>
-  </si>
-  <si>
-    <t>henderscheme</t>
-  </si>
-  <si>
-    <t>daks</t>
-  </si>
-  <si>
-    <t>topten</t>
-  </si>
-  <si>
-    <t>vetement</t>
-  </si>
-  <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>heritagefloss</t>
-  </si>
-  <si>
-    <t>salomon</t>
-  </si>
-  <si>
-    <t>thisisneverthat</t>
-  </si>
-  <si>
-    <t>k2</t>
-  </si>
-  <si>
-    <t>plac</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>lecoqsportif</t>
-  </si>
-  <si>
-    <t>gstarraw</t>
-  </si>
-  <si>
-    <t>gap</t>
-  </si>
-  <si>
-    <t>bershka</t>
-  </si>
-  <si>
-    <t>haveagoodtime</t>
-  </si>
-  <si>
-    <t>mlb</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>diesel</t>
-  </si>
-  <si>
-    <t>undefeated</t>
-  </si>
-  <si>
-    <t>umbro</t>
-  </si>
-  <si>
-    <t>critic</t>
-  </si>
-  <si>
-    <t>barbour</t>
-  </si>
-  <si>
-    <t>ugg</t>
-  </si>
-  <si>
-    <t>incase</t>
-  </si>
-  <si>
-    <t>norseproject</t>
-  </si>
-  <si>
-    <t>dkny</t>
-  </si>
-  <si>
-    <t>tomsshoes</t>
-  </si>
-  <si>
-    <t>eastpak</t>
-  </si>
-  <si>
-    <t>jeep</t>
-  </si>
-  <si>
-    <t>birkenstock</t>
-  </si>
-  <si>
-    <t>dickies</t>
-  </si>
-  <si>
-    <t>plasticisland</t>
-  </si>
-  <si>
-    <t>covernat</t>
-  </si>
-  <si>
-    <t>gregory</t>
-  </si>
-  <si>
-    <t>blackyak</t>
-  </si>
-  <si>
-    <t>oioi</t>
-  </si>
-  <si>
-    <t>teva</t>
-  </si>
-  <si>
-    <t>vivastudio</t>
-  </si>
-  <si>
-    <t>muji</t>
-  </si>
-  <si>
-    <t>pearlygates</t>
-  </si>
-  <si>
-    <t>descente</t>
-  </si>
-  <si>
-    <t>jansport</t>
-  </si>
-  <si>
-    <t>prospecs</t>
-  </si>
-  <si>
-    <t>kangol</t>
-  </si>
-  <si>
-    <t>newbalance</t>
-  </si>
-  <si>
-    <t>kolonsport</t>
-  </si>
-  <si>
-    <t>asics</t>
-  </si>
-  <si>
-    <t>lmc</t>
-  </si>
-  <si>
-    <t>lafuma</t>
-  </si>
-  <si>
-    <t>giordano</t>
-  </si>
-  <si>
-    <t>nepa</t>
-  </si>
-  <si>
-    <t>drmartens</t>
-  </si>
-  <si>
-    <t>eider</t>
-  </si>
-  <si>
-    <t>fila</t>
-  </si>
-  <si>
-    <t>placesplusfaces</t>
-  </si>
-  <si>
-    <t>midnightstudios</t>
-  </si>
-  <si>
-    <t>palace</t>
-  </si>
-  <si>
-    <t>johnelliott</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t>ambush</t>
-  </si>
-  <si>
-    <t>tomboy</t>
-  </si>
-  <si>
-    <t>c2h4</t>
-  </si>
-  <si>
-    <t>donothingcongress</t>
-  </si>
-  <si>
-    <t>99percentis</t>
-  </si>
-  <si>
-    <t>rickowens</t>
-  </si>
-  <si>
-    <t>hoodbyair</t>
-  </si>
-  <si>
-    <t>fog</t>
-  </si>
-  <si>
-    <t>aimeleondore</t>
-  </si>
-  <si>
-    <t>michaelkors</t>
-  </si>
-  <si>
-    <t>alexandermcqueen</t>
-  </si>
-  <si>
-    <t>valentino</t>
-  </si>
-  <si>
-    <t>dior</t>
-  </si>
-  <si>
-    <t>tods</t>
-  </si>
-  <si>
-    <t>fendi</t>
-  </si>
-  <si>
-    <t>maxmara</t>
-  </si>
-  <si>
-    <t>n21</t>
-  </si>
-  <si>
-    <t>jimmychoo</t>
-  </si>
-  <si>
-    <t>marcjacobs</t>
-  </si>
-  <si>
-    <t>charleskeith</t>
-  </si>
-  <si>
-    <t>theory</t>
-  </si>
-  <si>
-    <t>titleist</t>
-  </si>
-  <si>
-    <t>thenorthface</t>
-  </si>
-  <si>
-    <t>taylormade</t>
-  </si>
-  <si>
-    <t>ourlegacy</t>
-  </si>
-  <si>
-    <t>jlindeberg</t>
-  </si>
-  <si>
-    <t>kapital</t>
-  </si>
-  <si>
-    <t>rayban</t>
-  </si>
-  <si>
-    <t>humanmade</t>
-  </si>
-  <si>
-    <t>antisocialsocialclub</t>
-  </si>
-  <si>
-    <t>undercover</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>cavempt</t>
-  </si>
-  <si>
-    <t>cpcompany</t>
-  </si>
-  <si>
-    <t>thombrowne</t>
-  </si>
-  <si>
-    <t>woolrich</t>
-  </si>
-  <si>
-    <t>rokit</t>
-  </si>
-  <si>
-    <t>superga</t>
-  </si>
-  <si>
-    <t>tartoptical</t>
-  </si>
-  <si>
-    <t>nationalgeography</t>
-  </si>
-  <si>
-    <t>uniqlo</t>
-  </si>
-  <si>
-    <t>urutokyo</t>
-  </si>
-  <si>
-    <t>kuho</t>
-  </si>
-  <si>
-    <t>jillstuart</t>
-  </si>
-  <si>
-    <t>iise</t>
-  </si>
-  <si>
-    <t>hm</t>
-  </si>
-  <si>
-    <t>heronpreston</t>
-  </si>
-  <si>
-    <t>crocs</t>
-  </si>
-  <si>
-    <t>dynafit</t>
-  </si>
-  <si>
-    <t>billylosangeles</t>
-  </si>
-  <si>
-    <t>gmbh</t>
-  </si>
-  <si>
-    <t>grds</t>
-  </si>
-  <si>
-    <t>miumiu</t>
-  </si>
-  <si>
-    <t>keen</t>
-  </si>
-  <si>
-    <t>maisonmargiela</t>
-  </si>
-  <si>
-    <t>saintlaurent</t>
-  </si>
-  <si>
-    <t>lanvin</t>
-  </si>
-  <si>
-    <t>ermenegildozegna</t>
-  </si>
-  <si>
-    <t>dolcegabbana</t>
-  </si>
-  <si>
-    <t>coteciel</t>
-  </si>
-  <si>
-    <t>versace</t>
-  </si>
-  <si>
-    <t>moschino</t>
-  </si>
-  <si>
-    <t>vivianwestwood</t>
-  </si>
-  <si>
-    <t>celine</t>
-  </si>
-  <si>
-    <t>readymade</t>
-  </si>
-  <si>
-    <t>Isabelmarant</t>
-  </si>
-  <si>
-    <t>acoldwall</t>
-  </si>
-  <si>
-    <t>jilsander</t>
-  </si>
-  <si>
-    <t>alexanderwang</t>
-  </si>
-  <si>
-    <t>studioseven</t>
-  </si>
-  <si>
-    <t>aecawhite</t>
-  </si>
-  <si>
-    <t>marni</t>
-  </si>
-  <si>
-    <t>lynn</t>
-  </si>
-  <si>
-    <t>moscot</t>
-  </si>
-  <si>
-    <t>liful</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>apc</t>
-  </si>
-  <si>
-    <t>stussy</t>
-  </si>
-  <si>
-    <t>neighborhood</t>
-  </si>
-  <si>
-    <t>supreme</t>
-  </si>
-  <si>
-    <t>mhl</t>
-  </si>
-  <si>
-    <t>brixton</t>
-  </si>
-  <si>
-    <t>thrasher</t>
-  </si>
-  <si>
-    <t>newera</t>
-  </si>
-  <si>
-    <t>eytys</t>
-  </si>
-  <si>
-    <t>danner</t>
-  </si>
-  <si>
-    <t>converse</t>
-  </si>
-  <si>
-    <t>vans</t>
-  </si>
-  <si>
-    <t>chums</t>
-  </si>
-  <si>
-    <t>wtaps</t>
-  </si>
-  <si>
-    <t>carhartt</t>
-  </si>
-  <si>
-    <t>freitag</t>
-  </si>
-  <si>
-    <t>herschel</t>
-  </si>
-  <si>
-    <t>suicoke</t>
-  </si>
-  <si>
-    <t>obey</t>
-  </si>
-  <si>
-    <t>bape</t>
-  </si>
-  <si>
-    <t>iamnotahumanbeing</t>
-  </si>
-  <si>
-    <t>ami</t>
-  </si>
-  <si>
-    <t>puma</t>
-  </si>
-  <si>
-    <t>hugoboss</t>
-  </si>
-  <si>
-    <t>stellamccartney</t>
-  </si>
-  <si>
-    <t>barrel</t>
-  </si>
-  <si>
-    <t>hconnect</t>
-  </si>
-  <si>
-    <t>calvinklein</t>
-  </si>
-  <si>
-    <t>millet</t>
-  </si>
-  <si>
-    <t>mizuno</t>
-  </si>
-  <si>
-    <t>buckaroo</t>
-  </si>
-  <si>
-    <t>underarmour</t>
-  </si>
-  <si>
-    <t>mindbridge</t>
-  </si>
-  <si>
-    <t>benetton</t>
-  </si>
-  <si>
-    <t>oakley</t>
-  </si>
-  <si>
-    <t>abecrombiefitch</t>
-  </si>
-  <si>
-    <t>pleasuresclothing</t>
-  </si>
-  <si>
-    <t>monclear</t>
-  </si>
-  <si>
-    <t>givenchy</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>canadagoose</t>
-  </si>
-  <si>
-    <t>maje</t>
-  </si>
-  <si>
-    <t>sandro</t>
-  </si>
-  <si>
-    <t>thursdayisland</t>
-  </si>
-  <si>
-    <t>coach</t>
-  </si>
-  <si>
-    <t>discovery</t>
-  </si>
-  <si>
-    <t>munsingwear</t>
-  </si>
-  <si>
-    <t>soup</t>
-  </si>
-  <si>
-    <t>rimowa</t>
-  </si>
-  <si>
-    <t>paulsmith</t>
-  </si>
-  <si>
-    <t>commedesgarcons</t>
-  </si>
-  <si>
-    <t>zara</t>
-  </si>
-  <si>
-    <t>balenciaga</t>
-  </si>
-  <si>
-    <t>dsquared2</t>
-  </si>
-  <si>
-    <t>snowpeak</t>
-  </si>
-  <si>
-    <t>porter</t>
-  </si>
-  <si>
-    <t>goldengoose</t>
-  </si>
-  <si>
-    <t>filson</t>
-  </si>
-  <si>
-    <t>pleatsplease</t>
-  </si>
-  <si>
-    <t>chanel</t>
-  </si>
-  <si>
-    <t>louisvuitton</t>
-  </si>
-  <si>
-    <t>bottegaveneta</t>
-  </si>
-  <si>
-    <t>burberry</t>
-  </si>
-  <si>
-    <t>isseymiyake</t>
-  </si>
-  <si>
-    <t>stoneisland</t>
-  </si>
-  <si>
-    <t>mulberry</t>
-  </si>
-  <si>
-    <t>awakeny</t>
-  </si>
-  <si>
-    <t>hermes</t>
-  </si>
-  <si>
-    <t>ferragamo</t>
-  </si>
-  <si>
-    <t>prada</t>
-  </si>
-  <si>
-    <t>gucci</t>
-  </si>
-  <si>
-    <t>bally</t>
-  </si>
-  <si>
-    <t>reigningchamp</t>
-  </si>
-  <si>
-    <t>amiri</t>
-  </si>
-  <si>
-    <t>cherryla</t>
-  </si>
-  <si>
-    <t>balmain</t>
-  </si>
-  <si>
-    <t>clubmonaco</t>
-  </si>
-  <si>
-    <t>montblanc</t>
-  </si>
-  <si>
-    <t>poloralphlauren</t>
-  </si>
-  <si>
-    <t>sacai</t>
-  </si>
-  <si>
-    <t>toryburch</t>
-  </si>
-  <si>
-    <t>tumi</t>
-  </si>
-  <si>
-    <t>stereovinyls</t>
-  </si>
-  <si>
-    <t>adererror</t>
-  </si>
-  <si>
-    <t>veja</t>
-  </si>
-  <si>
-    <t>fredperry</t>
-  </si>
-  <si>
-    <t>mine</t>
-  </si>
-  <si>
-    <t>topshop</t>
-  </si>
-  <si>
-    <t>nonnative</t>
-  </si>
-  <si>
-    <t>mains</t>
-  </si>
-  <si>
-    <t>fillingpieces</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1453,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1464,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>127</v>
       </c>
       <c r="C127">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>130</v>
       </c>
       <c r="C130">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>142</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>143</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>146</v>
       </c>
       <c r="C146">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>148</v>
       </c>
       <c r="C148">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>155</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>158</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>159</v>
       </c>
       <c r="C159">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>160</v>
       </c>
       <c r="C160">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>161</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>162</v>
       </c>
       <c r="C162">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>163</v>
       </c>
       <c r="C163">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>164</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>165</v>
       </c>
       <c r="C165">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>166</v>
       </c>
       <c r="C166">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>167</v>
       </c>
       <c r="C167">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>168</v>
       </c>
       <c r="C168">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>169</v>
       </c>
       <c r="C169">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>170</v>
       </c>
       <c r="C170">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>171</v>
       </c>
       <c r="C171">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>172</v>
       </c>
       <c r="C172">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>173</v>
       </c>
       <c r="C173">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>174</v>
       </c>
       <c r="C174">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>175</v>
       </c>
       <c r="C175">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>176</v>
       </c>
       <c r="C176">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>177</v>
       </c>
       <c r="C177">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>178</v>
       </c>
       <c r="C178">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>179</v>
       </c>
       <c r="C179">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>180</v>
       </c>
       <c r="C180">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>181</v>
       </c>
       <c r="C181">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>182</v>
       </c>
       <c r="C182">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>183</v>
       </c>
       <c r="C183">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>184</v>
       </c>
       <c r="C184">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>185</v>
       </c>
       <c r="C185">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>186</v>
       </c>
       <c r="C186">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>187</v>
       </c>
       <c r="C187">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>188</v>
       </c>
       <c r="C188">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>189</v>
       </c>
       <c r="C189">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>190</v>
       </c>
       <c r="C190">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>191</v>
       </c>
       <c r="C191">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>192</v>
       </c>
       <c r="C192">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>193</v>
       </c>
       <c r="C193">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>194</v>
       </c>
       <c r="C194">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>195</v>
       </c>
       <c r="C195">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>196</v>
       </c>
       <c r="C196">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>197</v>
       </c>
       <c r="C197">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>198</v>
       </c>
       <c r="C198">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3499,7 +3499,7 @@
         <v>199</v>
       </c>
       <c r="C199">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3510,7 +3510,7 @@
         <v>200</v>
       </c>
       <c r="C200">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3521,7 +3521,7 @@
         <v>201</v>
       </c>
       <c r="C201">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3532,7 +3532,7 @@
         <v>202</v>
       </c>
       <c r="C202">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3543,7 +3543,7 @@
         <v>203</v>
       </c>
       <c r="C203">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3554,7 +3554,7 @@
         <v>204</v>
       </c>
       <c r="C204">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>205</v>
       </c>
       <c r="C205">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3576,7 +3576,7 @@
         <v>206</v>
       </c>
       <c r="C206">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3587,7 +3587,7 @@
         <v>207</v>
       </c>
       <c r="C207">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3598,7 +3598,7 @@
         <v>208</v>
       </c>
       <c r="C208">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3609,7 +3609,7 @@
         <v>209</v>
       </c>
       <c r="C209">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3620,7 +3620,7 @@
         <v>210</v>
       </c>
       <c r="C210">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3631,7 +3631,7 @@
         <v>211</v>
       </c>
       <c r="C211">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3642,7 +3642,7 @@
         <v>212</v>
       </c>
       <c r="C212">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>213</v>
       </c>
       <c r="C213">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3664,7 +3664,7 @@
         <v>214</v>
       </c>
       <c r="C214">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>215</v>
       </c>
       <c r="C215">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3686,7 +3686,7 @@
         <v>216</v>
       </c>
       <c r="C216">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3697,7 +3697,7 @@
         <v>217</v>
       </c>
       <c r="C217">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3708,7 +3708,7 @@
         <v>218</v>
       </c>
       <c r="C218">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3719,7 +3719,7 @@
         <v>219</v>
       </c>
       <c r="C219">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3730,7 +3730,7 @@
         <v>220</v>
       </c>
       <c r="C220">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3741,7 +3741,7 @@
         <v>221</v>
       </c>
       <c r="C221">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3752,7 +3752,7 @@
         <v>222</v>
       </c>
       <c r="C222">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>223</v>
       </c>
       <c r="C223">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3774,7 +3774,7 @@
         <v>224</v>
       </c>
       <c r="C224">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>225</v>
       </c>
       <c r="C225">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3796,7 +3796,7 @@
         <v>226</v>
       </c>
       <c r="C226">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>227</v>
       </c>
       <c r="C227">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3818,7 +3818,7 @@
         <v>228</v>
       </c>
       <c r="C228">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3829,7 +3829,7 @@
         <v>229</v>
       </c>
       <c r="C229">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3840,7 +3840,7 @@
         <v>230</v>
       </c>
       <c r="C230">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3851,7 +3851,7 @@
         <v>231</v>
       </c>
       <c r="C231">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3862,7 +3862,7 @@
         <v>232</v>
       </c>
       <c r="C232">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>233</v>
       </c>
       <c r="C233">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>234</v>
       </c>
       <c r="C234">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3895,7 +3895,7 @@
         <v>235</v>
       </c>
       <c r="C235">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3906,7 +3906,7 @@
         <v>236</v>
       </c>
       <c r="C236">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3917,7 +3917,7 @@
         <v>237</v>
       </c>
       <c r="C237">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3928,7 +3928,7 @@
         <v>238</v>
       </c>
       <c r="C238">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3939,7 +3939,7 @@
         <v>239</v>
       </c>
       <c r="C239">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3950,7 +3950,7 @@
         <v>240</v>
       </c>
       <c r="C240">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>241</v>
       </c>
       <c r="C241">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>242</v>
       </c>
       <c r="C242">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3983,7 +3983,7 @@
         <v>243</v>
       </c>
       <c r="C243">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>244</v>
       </c>
       <c r="C244">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4005,7 +4005,7 @@
         <v>245</v>
       </c>
       <c r="C245">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4016,7 +4016,7 @@
         <v>246</v>
       </c>
       <c r="C246">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4027,7 +4027,7 @@
         <v>247</v>
       </c>
       <c r="C247">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4038,7 +4038,7 @@
         <v>248</v>
       </c>
       <c r="C248">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4049,7 +4049,7 @@
         <v>249</v>
       </c>
       <c r="C249">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4060,7 +4060,7 @@
         <v>250</v>
       </c>
       <c r="C250">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4071,7 +4071,7 @@
         <v>251</v>
       </c>
       <c r="C251">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>252</v>
       </c>
       <c r="C252">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4093,7 +4093,7 @@
         <v>253</v>
       </c>
       <c r="C253">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>254</v>
       </c>
       <c r="C254">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4115,7 +4115,7 @@
         <v>255</v>
       </c>
       <c r="C255">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4126,7 +4126,7 @@
         <v>256</v>
       </c>
       <c r="C256">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4137,7 +4137,7 @@
         <v>257</v>
       </c>
       <c r="C257">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4148,7 +4148,7 @@
         <v>258</v>
       </c>
       <c r="C258">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4159,7 +4159,7 @@
         <v>259</v>
       </c>
       <c r="C259">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4170,7 +4170,7 @@
         <v>260</v>
       </c>
       <c r="C260">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4181,7 +4181,7 @@
         <v>261</v>
       </c>
       <c r="C261">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4192,7 +4192,7 @@
         <v>262</v>
       </c>
       <c r="C262">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4203,7 +4203,7 @@
         <v>263</v>
       </c>
       <c r="C263">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>264</v>
       </c>
       <c r="C264">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4225,7 +4225,7 @@
         <v>265</v>
       </c>
       <c r="C265">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4236,7 +4236,7 @@
         <v>266</v>
       </c>
       <c r="C266">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4247,7 +4247,7 @@
         <v>267</v>
       </c>
       <c r="C267">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4258,7 +4258,7 @@
         <v>268</v>
       </c>
       <c r="C268">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4269,7 +4269,7 @@
         <v>269</v>
       </c>
       <c r="C269">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4280,7 +4280,7 @@
         <v>270</v>
       </c>
       <c r="C270">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4291,7 +4291,7 @@
         <v>271</v>
       </c>
       <c r="C271">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4302,7 +4302,7 @@
         <v>272</v>
       </c>
       <c r="C272">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>273</v>
       </c>
       <c r="C273">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4324,7 +4324,7 @@
         <v>274</v>
       </c>
       <c r="C274">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4335,7 +4335,7 @@
         <v>275</v>
       </c>
       <c r="C275">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4346,7 +4346,7 @@
         <v>276</v>
       </c>
       <c r="C276">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4357,7 +4357,7 @@
         <v>277</v>
       </c>
       <c r="C277">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4368,7 +4368,7 @@
         <v>278</v>
       </c>
       <c r="C278">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4379,7 +4379,7 @@
         <v>279</v>
       </c>
       <c r="C279">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4390,7 +4390,7 @@
         <v>280</v>
       </c>
       <c r="C280">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4401,7 +4401,7 @@
         <v>281</v>
       </c>
       <c r="C281">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4412,7 +4412,7 @@
         <v>282</v>
       </c>
       <c r="C282">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4423,7 +4423,7 @@
         <v>283</v>
       </c>
       <c r="C283">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4434,7 +4434,7 @@
         <v>284</v>
       </c>
       <c r="C284">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4445,7 +4445,7 @@
         <v>285</v>
       </c>
       <c r="C285">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4456,7 +4456,7 @@
         <v>286</v>
       </c>
       <c r="C286">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4467,7 +4467,7 @@
         <v>287</v>
       </c>
       <c r="C287">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4478,7 +4478,7 @@
         <v>288</v>
       </c>
       <c r="C288">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4489,7 +4489,7 @@
         <v>289</v>
       </c>
       <c r="C289">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4500,7 +4500,7 @@
         <v>290</v>
       </c>
       <c r="C290">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4511,7 +4511,7 @@
         <v>291</v>
       </c>
       <c r="C291">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>292</v>
       </c>
       <c r="C292">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>293</v>
       </c>
       <c r="C293">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4544,7 +4544,7 @@
         <v>294</v>
       </c>
       <c r="C294">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4555,7 +4555,7 @@
         <v>295</v>
       </c>
       <c r="C295">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4566,7 +4566,7 @@
         <v>296</v>
       </c>
       <c r="C296">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4577,7 +4577,7 @@
         <v>297</v>
       </c>
       <c r="C297">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4588,7 +4588,7 @@
         <v>298</v>
       </c>
       <c r="C298">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4599,7 +4599,7 @@
         <v>299</v>
       </c>
       <c r="C299">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4610,7 +4610,7 @@
         <v>300</v>
       </c>
       <c r="C300">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4621,7 +4621,7 @@
         <v>301</v>
       </c>
       <c r="C301">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4632,7 +4632,7 @@
         <v>302</v>
       </c>
       <c r="C302">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>303</v>
       </c>
       <c r="C303">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4654,7 +4654,7 @@
         <v>304</v>
       </c>
       <c r="C304">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4665,7 +4665,7 @@
         <v>305</v>
       </c>
       <c r="C305">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4676,7 +4676,7 @@
         <v>306</v>
       </c>
       <c r="C306">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4687,7 +4687,7 @@
         <v>307</v>
       </c>
       <c r="C307">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4698,7 +4698,7 @@
         <v>308</v>
       </c>
       <c r="C308">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4709,7 +4709,7 @@
         <v>309</v>
       </c>
       <c r="C309">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4720,7 +4720,7 @@
         <v>310</v>
       </c>
       <c r="C310">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4731,7 +4731,7 @@
         <v>311</v>
       </c>
       <c r="C311">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>312</v>
       </c>
       <c r="C312">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
